--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="686">
   <si>
     <t>year</t>
   </si>
@@ -2096,13 +2096,19 @@
   </si>
   <si>
     <t>التفاعلات</t>
+  </si>
+  <si>
+    <t>no_teacher</t>
+  </si>
+  <si>
+    <t>لا يوجد مدرسين</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2123,6 +2129,12 @@
       <color rgb="FF8092A3"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2145,10 +2157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2433,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C354"/>
+  <dimension ref="A1:C355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="C354" sqref="C354"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="C355" sqref="C355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6338,6 +6353,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B355" t="s">
+        <v>685</v>
+      </c>
+      <c r="C355">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bailsan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="English_File__1_translated" localSheetId="0">Sheet1!$A$1:$F$324</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="688">
   <si>
     <t>year</t>
   </si>
@@ -2102,12 +2102,18 @@
   </si>
   <si>
     <t>لا يوجد مدرسين</t>
+  </si>
+  <si>
+    <t>msg_bbb</t>
+  </si>
+  <si>
+    <t>ملحوظة سوف يتم غلق المحاضرة في حالة عدم دخول احد خلال ٥ دقائق من وقت بداية المحاضرة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2448,21 +2454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C355"/>
+  <dimension ref="A1:C356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="C355" sqref="C355"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>613</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>617</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -3265,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>142</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="b">
         <v>1</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="b">
         <v>0</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>150</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -3397,7 +3403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -3540,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -3562,7 +3568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>193</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -3738,7 +3744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>226</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -3782,7 +3788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>235</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>237</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>239</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>241</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>243</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>245</v>
       </c>
@@ -3870,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>247</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>248</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>249</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>251</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>253</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>255</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>257</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>266</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>268</v>
       </c>
@@ -4035,7 +4041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>270</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>272</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>274</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>276</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>278</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>280</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>284</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>286</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>288</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>290</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>292</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>294</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>296</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>298</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>300</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>302</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>304</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>306</v>
       </c>
@@ -4244,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>308</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>310</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>312</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -4288,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>316</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>318</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>320</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>322</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>324</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>326</v>
       </c>
@@ -4354,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>328</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>330</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>332</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>334</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>336</v>
       </c>
@@ -4409,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>338</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>340</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>341</v>
       </c>
@@ -4442,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>343</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>344</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>346</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>347</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>349</v>
       </c>
@@ -4497,7 +4503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>351</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>353</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>354</v>
       </c>
@@ -4530,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>356</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>358</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>360</v>
       </c>
@@ -4563,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>362</v>
       </c>
@@ -4574,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>364</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>366</v>
       </c>
@@ -4596,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>368</v>
       </c>
@@ -4607,7 +4613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>370</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>372</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>374</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>376</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>378</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>380</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>382</v>
       </c>
@@ -4684,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>384</v>
       </c>
@@ -4695,7 +4701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>386</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>388</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>390</v>
       </c>
@@ -4728,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>392</v>
       </c>
@@ -4739,7 +4745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>394</v>
       </c>
@@ -4750,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>396</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>398</v>
       </c>
@@ -4772,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>400</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>402</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>404</v>
       </c>
@@ -4805,7 +4811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>406</v>
       </c>
@@ -4816,7 +4822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>408</v>
       </c>
@@ -4827,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>410</v>
       </c>
@@ -4838,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>412</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>414</v>
       </c>
@@ -4860,7 +4866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>416</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>418</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>420</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>422</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>424</v>
       </c>
@@ -4915,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>426</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>428</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>430</v>
       </c>
@@ -4948,7 +4954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>432</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>434</v>
       </c>
@@ -4970,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>436</v>
       </c>
@@ -4981,7 +4987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>438</v>
       </c>
@@ -4992,7 +4998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>440</v>
       </c>
@@ -5003,7 +5009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>441</v>
       </c>
@@ -5014,7 +5020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>443</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>445</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>447</v>
       </c>
@@ -5047,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>449</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>451</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>453</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>455</v>
       </c>
@@ -5091,7 +5097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>457</v>
       </c>
@@ -5102,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>459</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>461</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>462</v>
       </c>
@@ -5135,7 +5141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>464</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>466</v>
       </c>
@@ -5157,7 +5163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>468</v>
       </c>
@@ -5168,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>470</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>472</v>
       </c>
@@ -5190,7 +5196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>474</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>476</v>
       </c>
@@ -5212,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>478</v>
       </c>
@@ -5223,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>480</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>482</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>484</v>
       </c>
@@ -5256,7 +5262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>486</v>
       </c>
@@ -5267,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>487</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>489</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>491</v>
       </c>
@@ -5300,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>493</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>495</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>497</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>499</v>
       </c>
@@ -5344,7 +5350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>501</v>
       </c>
@@ -5355,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>503</v>
       </c>
@@ -5366,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>505</v>
       </c>
@@ -5377,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>507</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>509</v>
       </c>
@@ -5399,7 +5405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>511</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>513</v>
       </c>
@@ -5421,7 +5427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>515</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>517</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>519</v>
       </c>
@@ -5454,7 +5460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>521</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>523</v>
       </c>
@@ -5476,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>525</v>
       </c>
@@ -5487,7 +5493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>527</v>
       </c>
@@ -5498,7 +5504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>529</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>531</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>532</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>534</v>
       </c>
@@ -5542,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>536</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>538</v>
       </c>
@@ -5564,7 +5570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>540</v>
       </c>
@@ -5575,7 +5581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>542</v>
       </c>
@@ -5586,7 +5592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>544</v>
       </c>
@@ -5597,7 +5603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>546</v>
       </c>
@@ -5608,7 +5614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>548</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>550</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>552</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>554</v>
       </c>
@@ -5652,7 +5658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>556</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>558</v>
       </c>
@@ -5674,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>559</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>561</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>563</v>
       </c>
@@ -5707,7 +5713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>565</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>567</v>
       </c>
@@ -5729,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>568</v>
       </c>
@@ -5740,7 +5746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>569</v>
       </c>
@@ -5751,7 +5757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>570</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>572</v>
       </c>
@@ -5773,7 +5779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>574</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>576</v>
       </c>
@@ -5795,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>578</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>580</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>582</v>
       </c>
@@ -5828,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>584</v>
       </c>
@@ -5839,7 +5845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>586</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>588</v>
       </c>
@@ -5861,7 +5867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>590</v>
       </c>
@@ -5872,7 +5878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>592</v>
       </c>
@@ -5883,7 +5889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>594</v>
       </c>
@@ -5894,7 +5900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>596</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>598</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>600</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>601</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>603</v>
       </c>
@@ -5949,7 +5955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>605</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>607</v>
       </c>
@@ -5971,7 +5977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>608</v>
       </c>
@@ -5982,7 +5988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>618</v>
       </c>
@@ -5993,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>620</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>623</v>
       </c>
@@ -6015,7 +6021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>625</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>627</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>629</v>
       </c>
@@ -6048,7 +6054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>670</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>632</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>634</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>636</v>
       </c>
@@ -6092,7 +6098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>640</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>641</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>643</v>
       </c>
@@ -6125,7 +6131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>645</v>
       </c>
@@ -6136,7 +6142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>647</v>
       </c>
@@ -6147,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>648</v>
       </c>
@@ -6158,7 +6164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>651</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>0</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1</v>
       </c>
@@ -6191,7 +6197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>653</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>655</v>
       </c>
@@ -6213,7 +6219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>658</v>
       </c>
@@ -6224,7 +6230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>660</v>
       </c>
@@ -6235,7 +6241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>662</v>
       </c>
@@ -6246,7 +6252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>664</v>
       </c>
@@ -6257,7 +6263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>666</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>668</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>672</v>
       </c>
@@ -6290,7 +6296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>674</v>
       </c>
@@ -6301,7 +6307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>676</v>
       </c>
@@ -6309,7 +6315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>677</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>679</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>681</v>
       </c>
@@ -6342,7 +6348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>91</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>684</v>
       </c>
@@ -6361,6 +6367,17 @@
         <v>685</v>
       </c>
       <c r="C355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>686</v>
+      </c>
+      <c r="B356" t="s">
+        <v>687</v>
+      </c>
+      <c r="C356">
         <v>2</v>
       </c>
     </row>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B2C648-3C6E-4C0A-8AA5-E7DCE9410D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="English_File__1_translated" localSheetId="0">Sheet1!$A$1:$F$324</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="English File (1)translated" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="English File (1)translated" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\Learnovia\English File (1)translated.txt" comma="1" delimiter="&quot;">
       <textFields count="6">
         <textField/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="794">
   <si>
     <t>year</t>
   </si>
@@ -1021,15 +1022,9 @@
     <t>announcements</t>
   </si>
   <si>
-    <t>تصريحات</t>
-  </si>
-  <si>
     <t>announcement</t>
   </si>
   <si>
-    <t>تصريح</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -2108,12 +2103,336 @@
   </si>
   <si>
     <t>ملحوظة سوف يتم غلق المحاضرة في حالة عدم دخول احد خلال ٥ دقائق من وقت بداية المحاضرة</t>
+  </si>
+  <si>
+    <t>تكرار</t>
+  </si>
+  <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>approved_attempt</t>
+  </si>
+  <si>
+    <t>المحاولة المعتمدة</t>
+  </si>
+  <si>
+    <t>المحاولة الأولى</t>
+  </si>
+  <si>
+    <t>first_attempt</t>
+  </si>
+  <si>
+    <t>last_attempt</t>
+  </si>
+  <si>
+    <t>المحاولة الاخيرة</t>
+  </si>
+  <si>
+    <t>average_attempt</t>
+  </si>
+  <si>
+    <t>متوسط المحاولات</t>
+  </si>
+  <si>
+    <t>first_highest_attempt</t>
+  </si>
+  <si>
+    <t>أول أعلى محاولة</t>
+  </si>
+  <si>
+    <t>first_lowest_attempt</t>
+  </si>
+  <si>
+    <t>اول اقل محاولة</t>
+  </si>
+  <si>
+    <t>take_attendance</t>
+  </si>
+  <si>
+    <t>عرض الحضور</t>
+  </si>
+  <si>
+    <t>get_attendance</t>
+  </si>
+  <si>
+    <t>attendance_sheet</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>الاسم الكامل</t>
+  </si>
+  <si>
+    <t>attend_duration</t>
+  </si>
+  <si>
+    <t>مدة الحضور</t>
+  </si>
+  <si>
+    <t>first_log_in</t>
+  </si>
+  <si>
+    <t>اول تسجيل دخول</t>
+  </si>
+  <si>
+    <t>last_log_out</t>
+  </si>
+  <si>
+    <t>اخر تسجيل خروج</t>
+  </si>
+  <si>
+    <t>enter_date</t>
+  </si>
+  <si>
+    <t>تاريخ الدخول</t>
+  </si>
+  <si>
+    <t>left_date</t>
+  </si>
+  <si>
+    <t>تاريخ الخروج</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>غياب</t>
+  </si>
+  <si>
+    <t>minute/s</t>
+  </si>
+  <si>
+    <t>دقيقة (دقائق)</t>
+  </si>
+  <si>
+    <t>attendance</t>
+  </si>
+  <si>
+    <t>dashbord</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>فترة</t>
+  </si>
+  <si>
+    <t>is_it_graded_?</t>
+  </si>
+  <si>
+    <t>هل يوجد علية درجات؟</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>الاحد</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>الاثنين</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>الثلاثاء</t>
+  </si>
+  <si>
+    <t>wednesday</t>
+  </si>
+  <si>
+    <t>الاربعاء</t>
+  </si>
+  <si>
+    <t>thursday</t>
+  </si>
+  <si>
+    <t>الخميس</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>يوم</t>
+  </si>
+  <si>
+    <t>general_details</t>
+  </si>
+  <si>
+    <t>التفاصيل العامة</t>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>total_percentage</t>
+  </si>
+  <si>
+    <t>النسبة الإجمالية</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>حاضر</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>متأخر</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>غائب</t>
+  </si>
+  <si>
+    <t>your_submission</t>
+  </si>
+  <si>
+    <t>اجابتك</t>
+  </si>
+  <si>
+    <t>you_didnot_answer_to_this_assignment</t>
+  </si>
+  <si>
+    <t>لم تجب علي هذا الواجب</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>تم الانشاء</t>
+  </si>
+  <si>
+    <t>تم التعديل</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>تم الحذف</t>
+  </si>
+  <si>
+    <t>announcements/get</t>
+  </si>
+  <si>
+    <t>announcements/my</t>
+  </si>
+  <si>
+    <t>attendance/get-attendance</t>
+  </si>
+  <si>
+    <t>attendance/get-daily</t>
+  </si>
+  <si>
+    <t>يومي</t>
+  </si>
+  <si>
+    <t>course/get-all</t>
+  </si>
+  <si>
+    <t>enroll/user</t>
+  </si>
+  <si>
+    <t>تسجيل الموظفين</t>
+  </si>
+  <si>
+    <t>enroll/mandatory</t>
+  </si>
+  <si>
+    <t>تسجيل الطلاب</t>
+  </si>
+  <si>
+    <t>management/get</t>
+  </si>
+  <si>
+    <t>ادارة المواد</t>
+  </si>
+  <si>
+    <t>roles/add</t>
+  </si>
+  <si>
+    <t>اضافة وظيفة</t>
+  </si>
+  <si>
+    <t>roles/get</t>
+  </si>
+  <si>
+    <t>ادارة الوظائف</t>
+  </si>
+  <si>
+    <t>user/get-all</t>
+  </si>
+  <si>
+    <t>user/logs</t>
+  </si>
+  <si>
+    <t>السجلات</t>
+  </si>
+  <si>
+    <t>المستخدمون</t>
+  </si>
+  <si>
+    <t>تسجيل الحضور</t>
+  </si>
+  <si>
+    <t>تقرير الحضور</t>
+  </si>
+  <si>
+    <t>الصفحة الرئيسة</t>
+  </si>
+  <si>
+    <t>حصة</t>
+  </si>
+  <si>
+    <t>حصص</t>
+  </si>
+  <si>
+    <t>استئذان</t>
+  </si>
+  <si>
+    <t>جميع الحصص</t>
+  </si>
+  <si>
+    <t>عرض الإعلانات</t>
+  </si>
+  <si>
+    <t>إعلاناتي</t>
+  </si>
+  <si>
+    <t>إعلانات</t>
+  </si>
+  <si>
+    <t>إعلان</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2163,13 +2482,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2188,7 +2515,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="English File (1)translated" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="English File (1)translated" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2453,11 +2780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C356"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="B410" sqref="B410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,13 +2797,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3031,7 +3358,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B52" t="s">
         <v>99</v>
@@ -3749,7 +4076,7 @@
         <v>225</v>
       </c>
       <c r="B117" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -3760,7 +4087,7 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -3958,7 +4285,7 @@
         <v>259</v>
       </c>
       <c r="B136" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -3969,7 +4296,7 @@
         <v>260</v>
       </c>
       <c r="B137" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -3980,7 +4307,7 @@
         <v>261</v>
       </c>
       <c r="B138" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -3991,7 +4318,7 @@
         <v>262</v>
       </c>
       <c r="B139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -4002,7 +4329,7 @@
         <v>263</v>
       </c>
       <c r="B140" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -4343,7 +4670,7 @@
         <v>324</v>
       </c>
       <c r="B171" t="s">
-        <v>325</v>
+        <v>792</v>
       </c>
       <c r="C171">
         <v>2</v>
@@ -4351,10 +4678,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B172" t="s">
-        <v>327</v>
+        <v>793</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -4362,10 +4689,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B173" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -4373,10 +4700,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -4384,10 +4711,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B175" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -4395,10 +4722,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -4406,10 +4733,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -4417,10 +4744,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B178" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C178">
         <v>2</v>
@@ -4428,10 +4755,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B179" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C179">
         <v>2</v>
@@ -4439,10 +4766,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B180" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C180">
         <v>2</v>
@@ -4450,7 +4777,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B181" t="s">
         <v>133</v>
@@ -4461,10 +4788,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B182" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C182">
         <v>2</v>
@@ -4472,7 +4799,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B183" t="s">
         <v>123</v>
@@ -4483,10 +4810,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -4494,10 +4821,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -4505,10 +4832,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B186" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C186">
         <v>2</v>
@@ -4516,7 +4843,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B187" t="s">
         <v>265</v>
@@ -4527,10 +4854,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B188" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -4538,10 +4865,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -4549,10 +4876,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B190" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C190">
         <v>2</v>
@@ -4560,10 +4887,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B191" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -4571,10 +4898,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -4582,10 +4909,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -4593,10 +4920,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -4604,10 +4931,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -4615,10 +4942,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B196" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -4626,10 +4953,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B197" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -4637,10 +4964,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -4648,10 +4975,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -4659,10 +4986,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -4670,10 +4997,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -4681,10 +5008,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -4692,10 +5019,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -4703,10 +5030,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B204" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -4714,10 +5041,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B205" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -4725,10 +5052,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -4736,10 +5063,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B207" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -4747,10 +5074,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B208" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -4758,10 +5085,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -4769,10 +5096,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -4780,10 +5107,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -4791,10 +5118,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B212" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -4802,10 +5129,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -4813,10 +5140,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -4824,10 +5151,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C215">
         <v>2</v>
@@ -4835,10 +5162,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -4846,10 +5173,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -4857,10 +5184,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B218" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -4868,10 +5195,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B219" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -4879,10 +5206,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B220" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -4890,10 +5217,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B221" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C221">
         <v>2</v>
@@ -4901,10 +5228,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B222" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C222">
         <v>2</v>
@@ -4912,10 +5239,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B223" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C223">
         <v>2</v>
@@ -4923,10 +5250,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B224" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -4934,10 +5261,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B225" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -4945,10 +5272,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B226" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C226">
         <v>2</v>
@@ -4956,10 +5283,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B227" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -4967,10 +5294,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B228" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C228">
         <v>2</v>
@@ -4978,10 +5305,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B229" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C229">
         <v>2</v>
@@ -4989,10 +5316,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B230" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -5000,7 +5327,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B231" t="s">
         <v>76</v>
@@ -5011,10 +5338,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B232" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C232">
         <v>2</v>
@@ -5022,10 +5349,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B233" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -5033,10 +5360,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B234" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C234">
         <v>2</v>
@@ -5044,10 +5371,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B235" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C235">
         <v>2</v>
@@ -5055,10 +5382,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B236" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C236">
         <v>2</v>
@@ -5066,10 +5393,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B237" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C237">
         <v>2</v>
@@ -5077,10 +5404,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B238" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C238">
         <v>2</v>
@@ -5088,10 +5415,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B239" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C239">
         <v>2</v>
@@ -5099,10 +5426,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B240" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C240">
         <v>2</v>
@@ -5110,10 +5437,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B241" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C241">
         <v>2</v>
@@ -5121,10 +5448,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B242" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -5132,10 +5459,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B243" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C243">
         <v>2</v>
@@ -5143,10 +5470,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -5154,10 +5481,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C245">
         <v>2</v>
@@ -5165,10 +5492,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B246" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C246">
         <v>2</v>
@@ -5176,10 +5503,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B247" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -5187,10 +5514,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B248" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C248">
         <v>2</v>
@@ -5198,10 +5525,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B249" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C249">
         <v>2</v>
@@ -5209,10 +5536,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B250" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C250">
         <v>2</v>
@@ -5220,10 +5547,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B251" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -5231,10 +5558,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B252" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -5242,10 +5569,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B253" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C253">
         <v>2</v>
@@ -5253,10 +5580,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B254" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C254">
         <v>2</v>
@@ -5264,10 +5591,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B255" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C255">
         <v>2</v>
@@ -5275,10 +5602,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B256" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C256">
         <v>2</v>
@@ -5286,10 +5613,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B257" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C257">
         <v>2</v>
@@ -5297,10 +5624,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B258" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C258">
         <v>2</v>
@@ -5308,10 +5635,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B259" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -5319,10 +5646,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B260" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C260">
         <v>2</v>
@@ -5330,10 +5657,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B261" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C261">
         <v>2</v>
@@ -5341,10 +5668,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B262" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C262">
         <v>2</v>
@@ -5352,10 +5679,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B263" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C263">
         <v>2</v>
@@ -5363,10 +5690,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B264" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C264">
         <v>2</v>
@@ -5374,10 +5701,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B265" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C265">
         <v>2</v>
@@ -5385,10 +5712,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B266" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C266">
         <v>2</v>
@@ -5396,10 +5723,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B267" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C267">
         <v>2</v>
@@ -5407,10 +5734,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B268" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C268">
         <v>2</v>
@@ -5418,10 +5745,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B269" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -5429,10 +5756,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B270" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C270">
         <v>2</v>
@@ -5440,10 +5767,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B271" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C271">
         <v>2</v>
@@ -5451,10 +5778,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B272" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C272">
         <v>2</v>
@@ -5462,10 +5789,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B273" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C273">
         <v>2</v>
@@ -5473,10 +5800,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B274" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C274">
         <v>2</v>
@@ -5484,10 +5811,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B275" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C275">
         <v>2</v>
@@ -5495,10 +5822,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B276" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C276">
         <v>2</v>
@@ -5506,10 +5833,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B277" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C277">
         <v>2</v>
@@ -5517,7 +5844,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B278" t="s">
         <v>25</v>
@@ -5528,10 +5855,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B279" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C279">
         <v>2</v>
@@ -5539,10 +5866,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B280" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C280">
         <v>2</v>
@@ -5550,10 +5877,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B281" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C281">
         <v>2</v>
@@ -5561,10 +5888,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B282" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C282">
         <v>2</v>
@@ -5572,10 +5899,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B283" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C283">
         <v>2</v>
@@ -5583,10 +5910,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B284" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C284">
         <v>2</v>
@@ -5594,10 +5921,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B285" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C285">
         <v>2</v>
@@ -5605,10 +5932,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B286" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C286">
         <v>2</v>
@@ -5616,10 +5943,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B287" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C287">
         <v>2</v>
@@ -5627,10 +5954,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B288" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C288">
         <v>2</v>
@@ -5638,10 +5965,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B289" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -5649,10 +5976,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B290" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C290">
         <v>2</v>
@@ -5660,10 +5987,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B291" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C291">
         <v>2</v>
@@ -5671,7 +5998,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B292" t="s">
         <v>254</v>
@@ -5682,10 +6009,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B293" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -5693,10 +6020,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B294" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C294">
         <v>2</v>
@@ -5704,10 +6031,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B295" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C295">
         <v>2</v>
@@ -5715,10 +6042,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B296" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C296">
         <v>2</v>
@@ -5726,7 +6053,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B297" t="s">
         <v>1</v>
@@ -5737,10 +6064,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B298" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C298">
         <v>2</v>
@@ -5748,10 +6075,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B299" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C299">
         <v>2</v>
@@ -5759,10 +6086,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B300" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C300">
         <v>2</v>
@@ -5770,10 +6097,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B301" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C301">
         <v>2</v>
@@ -5781,10 +6108,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B302" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C302">
         <v>2</v>
@@ -5792,10 +6119,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B303" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C303">
         <v>2</v>
@@ -5803,10 +6130,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B304" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C304">
         <v>2</v>
@@ -5814,10 +6141,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B305" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C305">
         <v>2</v>
@@ -5825,10 +6152,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B306" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C306">
         <v>2</v>
@@ -5836,10 +6163,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B307" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C307">
         <v>2</v>
@@ -5847,10 +6174,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B308" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C308">
         <v>2</v>
@@ -5858,10 +6185,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B309" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C309">
         <v>2</v>
@@ -5869,10 +6196,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B310" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C310">
         <v>2</v>
@@ -5880,10 +6207,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B311" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C311">
         <v>2</v>
@@ -5891,10 +6218,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B312" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C312">
         <v>2</v>
@@ -5902,10 +6229,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B313" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C313">
         <v>2</v>
@@ -5913,10 +6240,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B314" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -5924,10 +6251,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B315" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C315">
         <v>2</v>
@@ -5935,10 +6262,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B316" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C316">
         <v>2</v>
@@ -5946,10 +6273,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B317" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C317">
         <v>2</v>
@@ -5957,10 +6284,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B318" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C318">
         <v>2</v>
@@ -5968,10 +6295,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B319" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C319">
         <v>2</v>
@@ -5979,10 +6306,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B320" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C320">
         <v>2</v>
@@ -5990,10 +6317,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B321" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C321">
         <v>2</v>
@@ -6001,10 +6328,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B322" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C322">
         <v>2</v>
@@ -6012,10 +6339,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B323" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C323">
         <v>2</v>
@@ -6023,10 +6350,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B324" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C324">
         <v>2</v>
@@ -6034,10 +6361,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B325" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C325">
         <v>2</v>
@@ -6045,10 +6372,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B326" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C326">
         <v>2</v>
@@ -6056,10 +6383,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B327" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C327">
         <v>2</v>
@@ -6067,10 +6394,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B328" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C328">
         <v>2</v>
@@ -6078,10 +6405,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B329" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C329">
         <v>2</v>
@@ -6089,10 +6416,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B330" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C330">
         <v>2</v>
@@ -6100,10 +6427,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B331" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -6111,10 +6438,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B332" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C332">
         <v>2</v>
@@ -6122,10 +6449,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B333" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C333">
         <v>2</v>
@@ -6133,10 +6460,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B334" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C334">
         <v>2</v>
@@ -6144,10 +6471,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>645</v>
+      </c>
+      <c r="B335" t="s">
         <v>647</v>
-      </c>
-      <c r="B335" t="s">
-        <v>649</v>
       </c>
       <c r="C335">
         <v>2</v>
@@ -6155,10 +6482,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>646</v>
+      </c>
+      <c r="B336" t="s">
         <v>648</v>
-      </c>
-      <c r="B336" t="s">
-        <v>650</v>
       </c>
       <c r="C336">
         <v>2</v>
@@ -6166,10 +6493,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B337" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C337">
         <v>2</v>
@@ -6199,10 +6526,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B340" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C340">
         <v>2</v>
@@ -6210,10 +6537,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B341" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C341">
         <v>2</v>
@@ -6221,10 +6548,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B342" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C342">
         <v>2</v>
@@ -6232,10 +6559,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B343" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C343">
         <v>2</v>
@@ -6243,10 +6570,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B344" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C344">
         <v>2</v>
@@ -6254,10 +6581,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B345" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C345">
         <v>2</v>
@@ -6265,10 +6592,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B346" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C346">
         <v>2</v>
@@ -6276,10 +6603,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B347" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -6287,10 +6614,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B348" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C348">
         <v>2</v>
@@ -6298,10 +6625,10 @@
     </row>
     <row r="349" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B349" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C349">
         <v>2</v>
@@ -6309,7 +6636,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C350">
         <v>2</v>
@@ -6317,10 +6644,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B351" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C351">
         <v>2</v>
@@ -6328,10 +6655,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B352" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C352">
         <v>2</v>
@@ -6339,10 +6666,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B353" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C353">
         <v>2</v>
@@ -6353,7 +6680,7 @@
         <v>91</v>
       </c>
       <c r="B354" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C354">
         <v>2</v>
@@ -6361,10 +6688,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B355" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C355">
         <v>2</v>
@@ -6372,12 +6699,617 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
+        <v>684</v>
+      </c>
+      <c r="B356" t="s">
+        <v>685</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>687</v>
+      </c>
+      <c r="B357" t="s">
         <v>686</v>
       </c>
-      <c r="B356" t="s">
-        <v>687</v>
-      </c>
-      <c r="C356">
+      <c r="C357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>688</v>
+      </c>
+      <c r="B358" t="s">
+        <v>689</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>691</v>
+      </c>
+      <c r="B359" t="s">
+        <v>690</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>692</v>
+      </c>
+      <c r="B360" t="s">
+        <v>693</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>694</v>
+      </c>
+      <c r="B361" t="s">
+        <v>695</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>696</v>
+      </c>
+      <c r="B362" t="s">
+        <v>697</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>698</v>
+      </c>
+      <c r="B363" t="s">
+        <v>699</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>700</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>702</v>
+      </c>
+      <c r="B365" t="s">
+        <v>701</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>703</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>704</v>
+      </c>
+      <c r="B367" t="s">
+        <v>705</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>706</v>
+      </c>
+      <c r="B368" t="s">
+        <v>707</v>
+      </c>
+      <c r="C368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>708</v>
+      </c>
+      <c r="B369" t="s">
+        <v>709</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>710</v>
+      </c>
+      <c r="B370" t="s">
+        <v>711</v>
+      </c>
+      <c r="C370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>712</v>
+      </c>
+      <c r="B371" t="s">
+        <v>713</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>714</v>
+      </c>
+      <c r="B372" t="s">
+        <v>715</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>716</v>
+      </c>
+      <c r="B373" t="s">
+        <v>674</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>717</v>
+      </c>
+      <c r="B374" t="s">
+        <v>718</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>719</v>
+      </c>
+      <c r="B375" t="s">
+        <v>720</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>721</v>
+      </c>
+      <c r="B376" t="s">
+        <v>674</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>722</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>723</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>724</v>
+      </c>
+      <c r="B379" t="s">
+        <v>725</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>726</v>
+      </c>
+      <c r="B380" t="s">
+        <v>727</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>728</v>
+      </c>
+      <c r="B381" t="s">
+        <v>729</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>730</v>
+      </c>
+      <c r="B382" t="s">
+        <v>731</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>732</v>
+      </c>
+      <c r="B383" t="s">
+        <v>733</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>734</v>
+      </c>
+      <c r="B384" t="s">
+        <v>735</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>736</v>
+      </c>
+      <c r="B385" t="s">
+        <v>737</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>738</v>
+      </c>
+      <c r="B386" t="s">
+        <v>676</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>739</v>
+      </c>
+      <c r="B387" t="s">
+        <v>740</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>741</v>
+      </c>
+      <c r="B388" t="s">
+        <v>742</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>743</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>744</v>
+      </c>
+      <c r="B390" t="s">
+        <v>745</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>746</v>
+      </c>
+      <c r="B391" t="s">
+        <v>747</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>748</v>
+      </c>
+      <c r="B392" t="s">
+        <v>749</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>750</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>751</v>
+      </c>
+      <c r="B394" t="s">
+        <v>752</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>753</v>
+      </c>
+      <c r="B395" t="s">
+        <v>754</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>755</v>
+      </c>
+      <c r="B396" t="s">
+        <v>756</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>757</v>
+      </c>
+      <c r="B397" t="s">
+        <v>759</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>758</v>
+      </c>
+      <c r="B398" t="s">
+        <v>760</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>761</v>
+      </c>
+      <c r="B399" t="s">
+        <v>762</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>763</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>764</v>
+      </c>
+      <c r="B401" t="s">
+        <v>791</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>765</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>766</v>
+      </c>
+      <c r="B403" t="s">
+        <v>767</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>768</v>
+      </c>
+      <c r="B404" t="s">
+        <v>58</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>769</v>
+      </c>
+      <c r="B405" t="s">
+        <v>770</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>771</v>
+      </c>
+      <c r="B406" t="s">
+        <v>772</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>773</v>
+      </c>
+      <c r="B407" t="s">
+        <v>774</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>775</v>
+      </c>
+      <c r="B408" t="s">
+        <v>776</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>777</v>
+      </c>
+      <c r="B409" t="s">
+        <v>778</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>779</v>
+      </c>
+      <c r="B410" t="s">
+        <v>782</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>780</v>
+      </c>
+      <c r="B411" t="s">
+        <v>781</v>
+      </c>
+      <c r="C411">
         <v>2</v>
       </c>
     </row>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B2C648-3C6E-4C0A-8AA5-E7DCE9410D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E709E-1664-4BAA-8D37-BD9B4D1B94D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="799">
   <si>
     <t>year</t>
   </si>
@@ -2427,6 +2427,21 @@
   </si>
   <si>
     <t>إعلان</t>
+  </si>
+  <si>
+    <t>records</t>
+  </si>
+  <si>
+    <t>تسجيلات</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>please_select_course_and_class</t>
+  </si>
+  <si>
+    <t>من فضلك إختار الفصل و المادة</t>
   </si>
 </sst>
 </file>
@@ -2781,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C411"/>
+  <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="B410" sqref="B410"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7313,6 +7328,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="412" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C412" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C413" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="C414" s="11">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E709E-1664-4BAA-8D37-BD9B4D1B94D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0112E5E-6F9B-4741-AB69-F8EF32F88B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="801">
   <si>
     <t>year</t>
   </si>
@@ -2442,6 +2442,12 @@
   </si>
   <si>
     <t>من فضلك إختار الفصل و المادة</t>
+  </si>
+  <si>
+    <t>last_action</t>
+  </si>
+  <si>
+    <t>اخر فعل</t>
   </si>
 </sst>
 </file>
@@ -2796,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C414"/>
+  <dimension ref="A1:C415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7361,6 +7367,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>799</v>
+      </c>
+      <c r="B415" t="s">
+        <v>800</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0112E5E-6F9B-4741-AB69-F8EF32F88B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8BC55-1EEC-47CB-BAFE-EA23293F6B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="805">
   <si>
     <t>year</t>
   </si>
@@ -2448,6 +2448,18 @@
   </si>
   <si>
     <t>اخر فعل</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>there_is_no_data_to_show</t>
+  </si>
+  <si>
+    <t>لا توجد بيانات لعرضها</t>
+  </si>
+  <si>
+    <t>سحب</t>
   </si>
 </sst>
 </file>
@@ -2802,10 +2814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C415"/>
+  <dimension ref="A1:C418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="B417" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7378,6 +7390,33 @@
         <v>2</v>
       </c>
     </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C416" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="C417" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="11"/>
+      <c r="B418" s="11"/>
+      <c r="C418" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8BC55-1EEC-47CB-BAFE-EA23293F6B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCFB3D7-4FE7-446C-8968-AC2B34ABE612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="811">
   <si>
     <t>year</t>
   </si>
@@ -2460,6 +2460,24 @@
   </si>
   <si>
     <t>سحب</t>
+  </si>
+  <si>
+    <t>msq_duration_finish_quiz</t>
+  </si>
+  <si>
+    <t>مدة الاختبار انتهت</t>
+  </si>
+  <si>
+    <t>continue_last_attemp</t>
+  </si>
+  <si>
+    <t>تكملة المحاولة الاخيرة</t>
+  </si>
+  <si>
+    <t>answer_quiz_submitted_automatic</t>
+  </si>
+  <si>
+    <t>تم إرسال إجابة الاختبار تلقائيًا</t>
   </si>
 </sst>
 </file>
@@ -2814,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C418"/>
+  <dimension ref="A1:C420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="B430" sqref="B430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7413,9 +7431,37 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="11"/>
-      <c r="B418" s="11"/>
-      <c r="C418" s="11"/>
+      <c r="A418" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="B418" t="s">
+        <v>806</v>
+      </c>
+      <c r="C418" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>807</v>
+      </c>
+      <c r="B419" t="s">
+        <v>808</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>809</v>
+      </c>
+      <c r="B420" t="s">
+        <v>810</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCFB3D7-4FE7-446C-8968-AC2B34ABE612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB5209-70EC-4140-B38C-A29DEB16EB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="813">
   <si>
     <t>year</t>
   </si>
@@ -2478,6 +2478,12 @@
   </si>
   <si>
     <t>تم إرسال إجابة الاختبار تلقائيًا</t>
+  </si>
+  <si>
+    <t>msq_max_attemp</t>
+  </si>
+  <si>
+    <t>لقد وصلت إلى الحد الأقصى لعدد المحاولات</t>
   </si>
 </sst>
 </file>
@@ -2832,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C420"/>
+  <dimension ref="A1:C421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="B430" sqref="B430"/>
+      <selection activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7463,6 +7469,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>811</v>
+      </c>
+      <c r="B421" t="s">
+        <v>812</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB5209-70EC-4140-B38C-A29DEB16EB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD1CC32-13E1-4C3D-8065-EB725719C354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="815">
   <si>
     <t>year</t>
   </si>
@@ -2484,6 +2484,12 @@
   </si>
   <si>
     <t>لقد وصلت إلى الحد الأقصى لعدد المحاولات</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>عنصر</t>
   </si>
 </sst>
 </file>
@@ -2838,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C421"/>
+  <dimension ref="A1:C422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+      <selection activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7480,6 +7486,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>813</v>
+      </c>
+      <c r="B422" t="s">
+        <v>814</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD1CC32-13E1-4C3D-8065-EB725719C354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6602733-8BED-4B9F-94F2-D4F42C9270F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="821">
   <si>
     <t>year</t>
   </si>
@@ -2490,6 +2490,24 @@
   </si>
   <si>
     <t>عنصر</t>
+  </si>
+  <si>
+    <t>content_answer</t>
+  </si>
+  <si>
+    <t>محتوى الإجابة</t>
+  </si>
+  <si>
+    <t>msg_student_not_do_ass</t>
+  </si>
+  <si>
+    <t>لم يرسل الطالب هذا الواجب</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>تاريخ الميلاد</t>
   </si>
 </sst>
 </file>
@@ -2844,10 +2862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C422"/>
+  <dimension ref="A1:C425"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="B422" sqref="B422"/>
+      <selection activeCell="B425" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7497,6 +7515,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>815</v>
+      </c>
+      <c r="B423" t="s">
+        <v>816</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>817</v>
+      </c>
+      <c r="B424" t="s">
+        <v>818</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="C425" s="11">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6602733-8BED-4B9F-94F2-D4F42C9270F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A43EA-4D3E-4F9F-90F8-F9D1EAFE044E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="823">
   <si>
     <t>year</t>
   </si>
@@ -2508,6 +2508,12 @@
   </si>
   <si>
     <t>تاريخ الميلاد</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>والد/والدة</t>
   </si>
 </sst>
 </file>
@@ -2862,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C425"/>
+  <dimension ref="A1:C426"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="B425" sqref="B425"/>
+      <selection activeCell="B426" sqref="B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7548,6 +7554,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>821</v>
+      </c>
+      <c r="B426" t="s">
+        <v>822</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A43EA-4D3E-4F9F-90F8-F9D1EAFE044E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E70024-BB8C-4BE2-9A1E-CBA11D81EBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="834">
   <si>
     <t>year</t>
   </si>
@@ -2514,6 +2514,39 @@
   </si>
   <si>
     <t>والد/والدة</t>
+  </si>
+  <si>
+    <t>enrollment</t>
+  </si>
+  <si>
+    <t>التسجيل</t>
+  </si>
+  <si>
+    <t>msg_character</t>
+  </si>
+  <si>
+    <t>من فضلك أدخل الأحرف فقط</t>
+  </si>
+  <si>
+    <t>delete_import</t>
+  </si>
+  <si>
+    <t>حذف المستخدمين في الملف</t>
+  </si>
+  <si>
+    <t>أضف المستخدمين من الملف</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>أنواع</t>
+  </si>
+  <si>
+    <t>h5p</t>
   </si>
 </sst>
 </file>
@@ -2868,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C426"/>
+  <dimension ref="A1:C433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="B426" sqref="B426"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7565,6 +7598,83 @@
         <v>2</v>
       </c>
     </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>823</v>
+      </c>
+      <c r="B427" t="s">
+        <v>824</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>825</v>
+      </c>
+      <c r="B428" t="s">
+        <v>826</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>827</v>
+      </c>
+      <c r="B429" t="s">
+        <v>828</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>645</v>
+      </c>
+      <c r="B430" t="s">
+        <v>829</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>830</v>
+      </c>
+      <c r="B431" t="s">
+        <v>492</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>831</v>
+      </c>
+      <c r="B432" t="s">
+        <v>832</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>833</v>
+      </c>
+      <c r="B433" t="s">
+        <v>681</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E70024-BB8C-4BE2-9A1E-CBA11D81EBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F4ECFA-64D6-4F05-82A1-357C8837FF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="838">
   <si>
     <t>year</t>
   </si>
@@ -2547,6 +2547,18 @@
   </si>
   <si>
     <t>h5p</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>إخفاء</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>إظهار</t>
   </si>
 </sst>
 </file>
@@ -2901,10 +2913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C433"/>
+  <dimension ref="A1:C435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7675,6 +7687,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>834</v>
+      </c>
+      <c r="B434" t="s">
+        <v>835</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>836</v>
+      </c>
+      <c r="B435" t="s">
+        <v>837</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F4ECFA-64D6-4F05-82A1-357C8837FF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42149706-866D-48A4-92D0-90C5E42795A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="840">
   <si>
     <t>year</t>
   </si>
@@ -2559,6 +2559,12 @@
   </si>
   <si>
     <t>إظهار</t>
+  </si>
+  <si>
+    <t>user/set-parent-child</t>
+  </si>
+  <si>
+    <t>تعيين الآباء والأبناء</t>
   </si>
 </sst>
 </file>
@@ -2913,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C435"/>
+  <dimension ref="A1:C436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+      <selection activeCell="B436" sqref="B436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7709,6 +7715,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>838</v>
+      </c>
+      <c r="B436" t="s">
+        <v>839</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42149706-866D-48A4-92D0-90C5E42795A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FA79F1-14DE-4208-A583-F7B21776A9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="852">
   <si>
     <t>year</t>
   </si>
@@ -2565,6 +2565,42 @@
   </si>
   <si>
     <t>تعيين الآباء والأبناء</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>الاسم المختصر</t>
+  </si>
+  <si>
+    <t>الاسم بالكامل</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>نموذج</t>
+  </si>
+  <si>
+    <t>add_question_error</t>
+  </si>
+  <si>
+    <t>ملحوظة السؤال يتم تعيينه لجميع الفصول والدروس في المادة المحددة فقط</t>
+  </si>
+  <si>
+    <t>item_per_page</t>
+  </si>
+  <si>
+    <t>عدد العناصر في الصفحة</t>
+  </si>
+  <si>
+    <t>this_record_is_hide</t>
+  </si>
+  <si>
+    <t>تم انتهاء وقت توفير التسجيل الخاص بهذا الفصل الافتراضي</t>
   </si>
 </sst>
 </file>
@@ -2919,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C436"/>
+  <dimension ref="A1:C444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="B436" sqref="B436"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7726,6 +7762,94 @@
         <v>2</v>
       </c>
     </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>840</v>
+      </c>
+      <c r="B437" t="s">
+        <v>841</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>704</v>
+      </c>
+      <c r="B438" t="s">
+        <v>842</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>843</v>
+      </c>
+      <c r="B439" t="s">
+        <v>781</v>
+      </c>
+      <c r="C439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>844</v>
+      </c>
+      <c r="B440" t="s">
+        <v>845</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>846</v>
+      </c>
+      <c r="B441" t="s">
+        <v>847</v>
+      </c>
+      <c r="C441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>675</v>
+      </c>
+      <c r="B442" t="s">
+        <v>676</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>848</v>
+      </c>
+      <c r="B443" t="s">
+        <v>849</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>850</v>
+      </c>
+      <c r="B444" t="s">
+        <v>851</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FA79F1-14DE-4208-A583-F7B21776A9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A93D9D-4354-4C6B-85BD-5815C14F755B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="858">
   <si>
     <t>year</t>
   </si>
@@ -2601,6 +2601,24 @@
   </si>
   <si>
     <t>تم انتهاء وقت توفير التسجيل الخاص بهذا الفصل الافتراضي</t>
+  </si>
+  <si>
+    <t>shuffling</t>
+  </si>
+  <si>
+    <t>خلط</t>
+  </si>
+  <si>
+    <t>questions_answers</t>
+  </si>
+  <si>
+    <t>أسئلة وأجوبة</t>
+  </si>
+  <si>
+    <t>no_shuffle</t>
+  </si>
+  <si>
+    <t>بدون خلط</t>
   </si>
 </sst>
 </file>
@@ -2955,10 +2973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C444"/>
+  <dimension ref="A1:C447"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444"/>
+      <selection activeCell="B447" sqref="B447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7850,6 +7868,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>852</v>
+      </c>
+      <c r="B445" t="s">
+        <v>853</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>854</v>
+      </c>
+      <c r="B446" t="s">
+        <v>855</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>856</v>
+      </c>
+      <c r="B447" t="s">
+        <v>857</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A93D9D-4354-4C6B-85BD-5815C14F755B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED85857A-D9E0-40DD-B646-5139BFD96D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="866">
   <si>
     <t>year</t>
   </si>
@@ -2619,6 +2619,30 @@
   </si>
   <si>
     <t>بدون خلط</t>
+  </si>
+  <si>
+    <t>choose_your_son!</t>
+  </si>
+  <si>
+    <t>to_see_his/her_progress_and_overview</t>
+  </si>
+  <si>
+    <t>you_don`t_have_any_children</t>
+  </si>
+  <si>
+    <t>switch_son</t>
+  </si>
+  <si>
+    <t>اختر ابنًا آخر</t>
+  </si>
+  <si>
+    <t>ليس لديك أطفال متاحون</t>
+  </si>
+  <si>
+    <t>الرجاء اختيار ابنك!</t>
+  </si>
+  <si>
+    <t>لمعرفة التقدم المحرز له / لها</t>
   </si>
 </sst>
 </file>
@@ -2973,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C447"/>
+  <dimension ref="A1:C451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="B447" sqref="B447"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7901,6 +7925,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>858</v>
+      </c>
+      <c r="B448" t="s">
+        <v>864</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>859</v>
+      </c>
+      <c r="B449" t="s">
+        <v>865</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>860</v>
+      </c>
+      <c r="B450" t="s">
+        <v>863</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>861</v>
+      </c>
+      <c r="B451" t="s">
+        <v>862</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED85857A-D9E0-40DD-B646-5139BFD96D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24590B1-DE23-454A-8D59-5AB93CAC7528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="878">
   <si>
     <t>year</t>
   </si>
@@ -2643,6 +2643,42 @@
   </si>
   <si>
     <t>لمعرفة التقدم المحرز له / لها</t>
+  </si>
+  <si>
+    <t>you_chating_about</t>
+  </si>
+  <si>
+    <t>أنت تدردش مع / حول</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>الرسائل</t>
+  </si>
+  <si>
+    <t>type_something_here</t>
+  </si>
+  <si>
+    <t>compose_message</t>
+  </si>
+  <si>
+    <t>رسالة مجمعة</t>
+  </si>
+  <si>
+    <t>اكتب شيئًا هنا</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>أسبوع</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>شهر</t>
   </si>
 </sst>
 </file>
@@ -2997,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C451"/>
+  <dimension ref="A1:C458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C452" sqref="C452"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="B458" sqref="B458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7969,6 +8005,83 @@
         <v>2</v>
       </c>
     </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>83</v>
+      </c>
+      <c r="B452" t="s">
+        <v>84</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>866</v>
+      </c>
+      <c r="B453" t="s">
+        <v>867</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>868</v>
+      </c>
+      <c r="B454" t="s">
+        <v>869</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>870</v>
+      </c>
+      <c r="B455" t="s">
+        <v>873</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>871</v>
+      </c>
+      <c r="B456" t="s">
+        <v>872</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>874</v>
+      </c>
+      <c r="B457" t="s">
+        <v>875</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>876</v>
+      </c>
+      <c r="B458" t="s">
+        <v>877</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24590B1-DE23-454A-8D59-5AB93CAC7528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0549896-567B-4E5C-95F8-BDBDD768DD91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="890">
   <si>
     <t>year</t>
   </si>
@@ -2639,9 +2639,6 @@
     <t>ليس لديك أطفال متاحون</t>
   </si>
   <si>
-    <t>الرجاء اختيار ابنك!</t>
-  </si>
-  <si>
     <t>لمعرفة التقدم المحرز له / لها</t>
   </si>
   <si>
@@ -2679,6 +2676,45 @@
   </si>
   <si>
     <t>شهر</t>
+  </si>
+  <si>
+    <t>من فضلك ، اختر ابنك / ابنتك!</t>
+  </si>
+  <si>
+    <t>view_attemps</t>
+  </si>
+  <si>
+    <t>عرض المحاولات</t>
+  </si>
+  <si>
+    <t>write_here</t>
+  </si>
+  <si>
+    <t>اكتب هنا</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>فيديو</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>تسجيل صوتي</t>
+  </si>
+  <si>
+    <t>finsh_recording</t>
+  </si>
+  <si>
+    <t>إنهاء التسجيل</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>توقف</t>
   </si>
 </sst>
 </file>
@@ -3033,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C458"/>
+  <dimension ref="A1:C464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="B458" sqref="B458"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="A463" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7966,7 +8002,7 @@
         <v>858</v>
       </c>
       <c r="B448" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="C448">
         <v>2</v>
@@ -7977,7 +8013,7 @@
         <v>859</v>
       </c>
       <c r="B449" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C449">
         <v>2</v>
@@ -8018,10 +8054,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
+        <v>865</v>
+      </c>
+      <c r="B453" t="s">
         <v>866</v>
-      </c>
-      <c r="B453" t="s">
-        <v>867</v>
       </c>
       <c r="C453">
         <v>2</v>
@@ -8029,10 +8065,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
+        <v>867</v>
+      </c>
+      <c r="B454" t="s">
         <v>868</v>
-      </c>
-      <c r="B454" t="s">
-        <v>869</v>
       </c>
       <c r="C454">
         <v>2</v>
@@ -8040,10 +8076,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B455" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C455">
         <v>2</v>
@@ -8051,10 +8087,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
+        <v>870</v>
+      </c>
+      <c r="B456" t="s">
         <v>871</v>
-      </c>
-      <c r="B456" t="s">
-        <v>872</v>
       </c>
       <c r="C456">
         <v>2</v>
@@ -8062,10 +8098,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
+        <v>873</v>
+      </c>
+      <c r="B457" t="s">
         <v>874</v>
-      </c>
-      <c r="B457" t="s">
-        <v>875</v>
       </c>
       <c r="C457">
         <v>2</v>
@@ -8073,12 +8109,78 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
+        <v>875</v>
+      </c>
+      <c r="B458" t="s">
         <v>876</v>
       </c>
-      <c r="B458" t="s">
-        <v>877</v>
-      </c>
       <c r="C458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>878</v>
+      </c>
+      <c r="B459" t="s">
+        <v>879</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>880</v>
+      </c>
+      <c r="B460" t="s">
+        <v>881</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>882</v>
+      </c>
+      <c r="B461" t="s">
+        <v>883</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>884</v>
+      </c>
+      <c r="B462" t="s">
+        <v>885</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>886</v>
+      </c>
+      <c r="B463" t="s">
+        <v>887</v>
+      </c>
+      <c r="C463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>888</v>
+      </c>
+      <c r="B464" t="s">
+        <v>889</v>
+      </c>
+      <c r="C464">
         <v>2</v>
       </c>
     </row>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0549896-567B-4E5C-95F8-BDBDD768DD91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5850E70-E858-4AEA-B0EA-7C655122F95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="895">
   <si>
     <t>year</t>
   </si>
@@ -2715,6 +2715,21 @@
   </si>
   <si>
     <t>توقف</t>
+  </si>
+  <si>
+    <t>لم تجب على هذه المهمة</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>مدرس</t>
+  </si>
+  <si>
+    <t>write_your_comment</t>
+  </si>
+  <si>
+    <t>اكتب تعليقك</t>
   </si>
 </sst>
 </file>
@@ -3069,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:C467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="A463" sqref="A463"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="B467" sqref="B467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8184,6 +8199,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>755</v>
+      </c>
+      <c r="B465" t="s">
+        <v>890</v>
+      </c>
+      <c r="C465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>891</v>
+      </c>
+      <c r="B466" t="s">
+        <v>892</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>893</v>
+      </c>
+      <c r="B467" t="s">
+        <v>894</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5850E70-E858-4AEA-B0EA-7C655122F95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C9F4C5-9CA2-400D-A832-02CF55A4D340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="897">
   <si>
     <t>year</t>
   </si>
@@ -2730,6 +2730,12 @@
   </si>
   <si>
     <t>اكتب تعليقك</t>
+  </si>
+  <si>
+    <t>there_are_no_parents</t>
+  </si>
+  <si>
+    <t>لا يوجد آباء</t>
   </si>
 </sst>
 </file>
@@ -3084,10 +3090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C467"/>
+  <dimension ref="A1:C468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="B467" sqref="B467"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8232,6 +8238,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>895</v>
+      </c>
+      <c r="B468" t="s">
+        <v>896</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C9F4C5-9CA2-400D-A832-02CF55A4D340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1ADA91-1AEC-4756-996A-755F6DBEE9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="920">
   <si>
     <t>year</t>
   </si>
@@ -2736,6 +2736,75 @@
   </si>
   <si>
     <t>لا يوجد آباء</t>
+  </si>
+  <si>
+    <t>attendance_report</t>
+  </si>
+  <si>
+    <t>teacher_name</t>
+  </si>
+  <si>
+    <t>اسم المدرس</t>
+  </si>
+  <si>
+    <t>lesson_name</t>
+  </si>
+  <si>
+    <t>اسم الدرس</t>
+  </si>
+  <si>
+    <t>student_count</t>
+  </si>
+  <si>
+    <t>عدد الطلاب</t>
+  </si>
+  <si>
+    <t>attend_count</t>
+  </si>
+  <si>
+    <t>عدد الحضور</t>
+  </si>
+  <si>
+    <t>absent_count</t>
+  </si>
+  <si>
+    <t>عدد الغياب</t>
+  </si>
+  <si>
+    <t>class_start</t>
+  </si>
+  <si>
+    <t>class_end</t>
+  </si>
+  <si>
+    <t>نهاية الحصة الافتراضية</t>
+  </si>
+  <si>
+    <t>بداية الحصة الافتراضية</t>
+  </si>
+  <si>
+    <t>late_time</t>
+  </si>
+  <si>
+    <t>مدة التاخير</t>
+  </si>
+  <si>
+    <t>actutal_end_date</t>
+  </si>
+  <si>
+    <t>تاريخ الانتهاء الفعلي</t>
+  </si>
+  <si>
+    <t>تاريخ البدء الفعلي</t>
+  </si>
+  <si>
+    <t>actutal_start_date</t>
+  </si>
+  <si>
+    <t>mark_all_as_read</t>
+  </si>
+  <si>
+    <t>قراءة الكل</t>
   </si>
 </sst>
 </file>
@@ -3090,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C468"/>
+  <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="B468" sqref="B468"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="F475" sqref="F475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8249,6 +8318,138 @@
         <v>2</v>
       </c>
     </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>897</v>
+      </c>
+      <c r="B469" t="s">
+        <v>784</v>
+      </c>
+      <c r="C469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>898</v>
+      </c>
+      <c r="B470" t="s">
+        <v>899</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>900</v>
+      </c>
+      <c r="B471" t="s">
+        <v>901</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>902</v>
+      </c>
+      <c r="B472" t="s">
+        <v>903</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>904</v>
+      </c>
+      <c r="B473" t="s">
+        <v>905</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>906</v>
+      </c>
+      <c r="B474" t="s">
+        <v>907</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>908</v>
+      </c>
+      <c r="B475" t="s">
+        <v>911</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>909</v>
+      </c>
+      <c r="B476" t="s">
+        <v>910</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>912</v>
+      </c>
+      <c r="B477" t="s">
+        <v>913</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>914</v>
+      </c>
+      <c r="B478" t="s">
+        <v>915</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>917</v>
+      </c>
+      <c r="B479" t="s">
+        <v>916</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>918</v>
+      </c>
+      <c r="B480" t="s">
+        <v>919</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1ADA91-1AEC-4756-996A-755F6DBEE9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFCFD9-5113-43DE-B67D-B9B391FE6E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="948">
   <si>
     <t>year</t>
   </si>
@@ -2805,6 +2805,90 @@
   </si>
   <si>
     <t>قراءة الكل</t>
+  </si>
+  <si>
+    <t>report/active_users</t>
+  </si>
+  <si>
+    <t>تقرير المستخدمين النشطين</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>التقارير</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>متوصل</t>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
+  <si>
+    <t>غير متصل</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>خطأ/صح</t>
+  </si>
+  <si>
+    <t>no_file</t>
+  </si>
+  <si>
+    <t>لا ملف</t>
+  </si>
+  <si>
+    <t>active_user_report</t>
+  </si>
+  <si>
+    <t>total_active_student</t>
+  </si>
+  <si>
+    <t>عدد الطلاب النشطين</t>
+  </si>
+  <si>
+    <t>specific_time</t>
+  </si>
+  <si>
+    <t>وقت محدد</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>رسم بياني</t>
+  </si>
+  <si>
+    <t>reload</t>
+  </si>
+  <si>
+    <t>إعادة تحميل</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>منذ</t>
+  </si>
+  <si>
+    <t>report/in_active_users</t>
+  </si>
+  <si>
+    <t>تقرير المستخدمين غير النشطين</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>inactive_user_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير المستخدمين غير النشطين </t>
   </si>
 </sst>
 </file>
@@ -3159,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C480"/>
+  <dimension ref="A1:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="F475" sqref="F475"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8450,6 +8534,182 @@
         <v>2</v>
       </c>
     </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>920</v>
+      </c>
+      <c r="B481" t="s">
+        <v>921</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>922</v>
+      </c>
+      <c r="B482" t="s">
+        <v>923</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>924</v>
+      </c>
+      <c r="B483" t="s">
+        <v>925</v>
+      </c>
+      <c r="C483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>926</v>
+      </c>
+      <c r="B484" t="s">
+        <v>927</v>
+      </c>
+      <c r="C484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>928</v>
+      </c>
+      <c r="B485" t="s">
+        <v>929</v>
+      </c>
+      <c r="C485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>930</v>
+      </c>
+      <c r="B486" t="s">
+        <v>931</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>932</v>
+      </c>
+      <c r="B487" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>933</v>
+      </c>
+      <c r="B488" t="s">
+        <v>934</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>935</v>
+      </c>
+      <c r="B489" t="s">
+        <v>936</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>937</v>
+      </c>
+      <c r="B490" t="s">
+        <v>938</v>
+      </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>939</v>
+      </c>
+      <c r="B491" t="s">
+        <v>940</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>941</v>
+      </c>
+      <c r="B492" t="s">
+        <v>942</v>
+      </c>
+      <c r="C492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>943</v>
+      </c>
+      <c r="B493" t="s">
+        <v>944</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>945</v>
+      </c>
+      <c r="B494" t="s">
+        <v>196</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>278</v>
+      </c>
+      <c r="B495" t="s">
+        <v>279</v>
+      </c>
+      <c r="C495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>946</v>
+      </c>
+      <c r="B496" t="s">
+        <v>947</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFCFD9-5113-43DE-B67D-B9B391FE6E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56480C33-2ED8-4B5E-9657-493545D51D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2822,9 +2822,6 @@
     <t>online</t>
   </si>
   <si>
-    <t>متوصل</t>
-  </si>
-  <si>
     <t>offline</t>
   </si>
   <si>
@@ -2889,6 +2886,9 @@
   </si>
   <si>
     <t xml:space="preserve">تقرير المستخدمين غير النشطين </t>
+  </si>
+  <si>
+    <t>متصل</t>
   </si>
 </sst>
 </file>
@@ -3246,7 +3246,7 @@
   <dimension ref="A1:C496"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="B496" sqref="B496"/>
+      <selection activeCell="B483" sqref="B483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8561,7 +8561,7 @@
         <v>924</v>
       </c>
       <c r="B483" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="C483">
         <v>2</v>
@@ -8569,10 +8569,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
+        <v>925</v>
+      </c>
+      <c r="B484" t="s">
         <v>926</v>
-      </c>
-      <c r="B484" t="s">
-        <v>927</v>
       </c>
       <c r="C484">
         <v>2</v>
@@ -8580,10 +8580,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
+        <v>927</v>
+      </c>
+      <c r="B485" t="s">
         <v>928</v>
-      </c>
-      <c r="B485" t="s">
-        <v>929</v>
       </c>
       <c r="C485">
         <v>2</v>
@@ -8591,10 +8591,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
+        <v>929</v>
+      </c>
+      <c r="B486" t="s">
         <v>930</v>
-      </c>
-      <c r="B486" t="s">
-        <v>931</v>
       </c>
       <c r="C486">
         <v>2</v>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B487" s="11" t="s">
         <v>921</v>
@@ -8613,10 +8613,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
+        <v>932</v>
+      </c>
+      <c r="B488" t="s">
         <v>933</v>
-      </c>
-      <c r="B488" t="s">
-        <v>934</v>
       </c>
       <c r="C488">
         <v>2</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
+        <v>934</v>
+      </c>
+      <c r="B489" t="s">
         <v>935</v>
-      </c>
-      <c r="B489" t="s">
-        <v>936</v>
       </c>
       <c r="C489">
         <v>2</v>
@@ -8635,10 +8635,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
+        <v>936</v>
+      </c>
+      <c r="B490" t="s">
         <v>937</v>
-      </c>
-      <c r="B490" t="s">
-        <v>938</v>
       </c>
       <c r="C490">
         <v>2</v>
@@ -8646,10 +8646,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
+        <v>938</v>
+      </c>
+      <c r="B491" t="s">
         <v>939</v>
-      </c>
-      <c r="B491" t="s">
-        <v>940</v>
       </c>
       <c r="C491">
         <v>2</v>
@@ -8657,10 +8657,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
+        <v>940</v>
+      </c>
+      <c r="B492" t="s">
         <v>941</v>
-      </c>
-      <c r="B492" t="s">
-        <v>942</v>
       </c>
       <c r="C492">
         <v>2</v>
@@ -8668,10 +8668,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
+        <v>942</v>
+      </c>
+      <c r="B493" t="s">
         <v>943</v>
-      </c>
-      <c r="B493" t="s">
-        <v>944</v>
       </c>
       <c r="C493">
         <v>2</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B494" t="s">
         <v>196</v>
@@ -8701,10 +8701,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
+        <v>945</v>
+      </c>
+      <c r="B496" t="s">
         <v>946</v>
-      </c>
-      <c r="B496" t="s">
-        <v>947</v>
       </c>
       <c r="C496">
         <v>2</v>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56480C33-2ED8-4B5E-9657-493545D51D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3502FEA0-4598-4F41-9C59-B3D55C0C8AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2807,9 +2807,6 @@
     <t>قراءة الكل</t>
   </si>
   <si>
-    <t>report/active_users</t>
-  </si>
-  <si>
     <t>تقرير المستخدمين النشطين</t>
   </si>
   <si>
@@ -2873,9 +2870,6 @@
     <t>منذ</t>
   </si>
   <si>
-    <t>report/in_active_users</t>
-  </si>
-  <si>
     <t>تقرير المستخدمين غير النشطين</t>
   </si>
   <si>
@@ -2889,6 +2883,12 @@
   </si>
   <si>
     <t>متصل</t>
+  </si>
+  <si>
+    <t>reports/in_active_users</t>
+  </si>
+  <si>
+    <t>reports/active_users</t>
   </si>
 </sst>
 </file>
@@ -3246,7 +3246,7 @@
   <dimension ref="A1:C496"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="B483" sqref="B483"/>
+      <selection activeCell="A481" sqref="A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8536,10 +8536,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
+        <v>947</v>
+      </c>
+      <c r="B481" t="s">
         <v>920</v>
-      </c>
-      <c r="B481" t="s">
-        <v>921</v>
       </c>
       <c r="C481">
         <v>2</v>
@@ -8547,10 +8547,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
+        <v>921</v>
+      </c>
+      <c r="B482" t="s">
         <v>922</v>
-      </c>
-      <c r="B482" t="s">
-        <v>923</v>
       </c>
       <c r="C482">
         <v>2</v>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B483" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C483">
         <v>2</v>
@@ -8569,10 +8569,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
+        <v>924</v>
+      </c>
+      <c r="B484" t="s">
         <v>925</v>
-      </c>
-      <c r="B484" t="s">
-        <v>926</v>
       </c>
       <c r="C484">
         <v>2</v>
@@ -8580,10 +8580,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
+        <v>926</v>
+      </c>
+      <c r="B485" t="s">
         <v>927</v>
-      </c>
-      <c r="B485" t="s">
-        <v>928</v>
       </c>
       <c r="C485">
         <v>2</v>
@@ -8591,10 +8591,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
+        <v>928</v>
+      </c>
+      <c r="B486" t="s">
         <v>929</v>
-      </c>
-      <c r="B486" t="s">
-        <v>930</v>
       </c>
       <c r="C486">
         <v>2</v>
@@ -8602,10 +8602,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B487" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C487">
         <v>2</v>
@@ -8613,10 +8613,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
+        <v>931</v>
+      </c>
+      <c r="B488" t="s">
         <v>932</v>
-      </c>
-      <c r="B488" t="s">
-        <v>933</v>
       </c>
       <c r="C488">
         <v>2</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
+        <v>933</v>
+      </c>
+      <c r="B489" t="s">
         <v>934</v>
-      </c>
-      <c r="B489" t="s">
-        <v>935</v>
       </c>
       <c r="C489">
         <v>2</v>
@@ -8635,10 +8635,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
+        <v>935</v>
+      </c>
+      <c r="B490" t="s">
         <v>936</v>
-      </c>
-      <c r="B490" t="s">
-        <v>937</v>
       </c>
       <c r="C490">
         <v>2</v>
@@ -8646,10 +8646,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
+        <v>937</v>
+      </c>
+      <c r="B491" t="s">
         <v>938</v>
-      </c>
-      <c r="B491" t="s">
-        <v>939</v>
       </c>
       <c r="C491">
         <v>2</v>
@@ -8657,10 +8657,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
+        <v>939</v>
+      </c>
+      <c r="B492" t="s">
         <v>940</v>
-      </c>
-      <c r="B492" t="s">
-        <v>941</v>
       </c>
       <c r="C492">
         <v>2</v>
@@ -8668,10 +8668,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B493" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C493">
         <v>2</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B494" t="s">
         <v>196</v>
@@ -8701,10 +8701,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B496" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C496">
         <v>2</v>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3502FEA0-4598-4F41-9C59-B3D55C0C8AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB8063-B7C0-4631-AF04-F9969568BEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="958">
   <si>
     <t>year</t>
   </si>
@@ -2889,6 +2889,36 @@
   </si>
   <si>
     <t>reports/active_users</t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>مجموعة</t>
+  </si>
+  <si>
+    <t>reports/overall_seen_report</t>
+  </si>
+  <si>
+    <t>seen_report</t>
+  </si>
+  <si>
+    <t>تقرير المشاهدات</t>
+  </si>
+  <si>
+    <t>seen_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العنصر المرئي </t>
+  </si>
+  <si>
+    <t>number_of_users</t>
+  </si>
+  <si>
+    <t>عدد المستخدمين</t>
+  </si>
+  <si>
+    <t>تقرير المشاهدات العام</t>
   </si>
 </sst>
 </file>
@@ -3243,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C496"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A481" sqref="A481"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="G491" sqref="G491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8710,6 +8740,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>948</v>
+      </c>
+      <c r="B497" t="s">
+        <v>949</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>950</v>
+      </c>
+      <c r="B498" t="s">
+        <v>957</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>951</v>
+      </c>
+      <c r="B499" t="s">
+        <v>952</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>953</v>
+      </c>
+      <c r="B500" t="s">
+        <v>954</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>955</v>
+      </c>
+      <c r="B501" t="s">
+        <v>956</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB8063-B7C0-4631-AF04-F9969568BEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBDCE14-D691-438A-B71F-4D3670B68E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="968">
   <si>
     <t>year</t>
   </si>
@@ -2919,6 +2919,36 @@
   </si>
   <si>
     <t>تقرير المشاهدات العام</t>
+  </si>
+  <si>
+    <t>viewed</t>
+  </si>
+  <si>
+    <t>شوهد</t>
+  </si>
+  <si>
+    <t>must_choose_file_or_content</t>
+  </si>
+  <si>
+    <t>يجب عليك اختيار ملف أو محتوى</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>حاليا</t>
+  </si>
+  <si>
+    <t>أنت لم تجب على هذه المهمة</t>
+  </si>
+  <si>
+    <t>publish_date</t>
+  </si>
+  <si>
+    <t>تاريخ النشر</t>
+  </si>
+  <si>
+    <t>رابط مضمن</t>
   </si>
 </sst>
 </file>
@@ -3273,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="G491" sqref="G491"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="D509" sqref="D509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8795,6 +8825,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>958</v>
+      </c>
+      <c r="B502" t="s">
+        <v>959</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>960</v>
+      </c>
+      <c r="B503" t="s">
+        <v>961</v>
+      </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>962</v>
+      </c>
+      <c r="B504" t="s">
+        <v>963</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>755</v>
+      </c>
+      <c r="B505" t="s">
+        <v>964</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>965</v>
+      </c>
+      <c r="B506" t="s">
+        <v>966</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>576</v>
+      </c>
+      <c r="B507" t="s">
+        <v>967</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learnoiva\Tasks\20-9-2020\learnovia-backend\public\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBDCE14-D691-438A-B71F-4D3670B68E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F198E6C-64E4-4C0B-8536-A109EC235AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="15672" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="976">
   <si>
     <t>year</t>
   </si>
@@ -2949,6 +2949,30 @@
   </si>
   <si>
     <t>رابط مضمن</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>غير صحيح</t>
+  </si>
+  <si>
+    <t>you_didn't_answer_this_quiz</t>
+  </si>
+  <si>
+    <t>لم تجب على هذا الاختبار</t>
+  </si>
+  <si>
+    <t>allow_edit_answer</t>
+  </si>
+  <si>
+    <t>السماح للطلاب بتعديل الإجابة</t>
+  </si>
+  <si>
+    <t>msg_confirm_edit_answer</t>
+  </si>
+  <si>
+    <t>هل أنت متأكد أنك تريد تعديل إجابتك؟</t>
   </si>
 </sst>
 </file>
@@ -3303,10 +3327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C507"/>
+  <dimension ref="A1:C511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="D509" sqref="D509"/>
+    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="B511" sqref="B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8891,6 +8915,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>968</v>
+      </c>
+      <c r="B508" t="s">
+        <v>969</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>970</v>
+      </c>
+      <c r="B509" t="s">
+        <v>971</v>
+      </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>972</v>
+      </c>
+      <c r="B510" t="s">
+        <v>973</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>974</v>
+      </c>
+      <c r="B511" t="s">
+        <v>975</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="980">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2957,6 +2957,12 @@
   </si>
   <si>
     <t xml:space="preserve">تقرير الغياب والحضور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/fgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تفرير الدرجات</t>
   </si>
 </sst>
 </file>
@@ -3054,7 +3060,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3073,6 +3079,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3152,13 +3162,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C512"/>
+  <dimension ref="A1:C513"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C512" activeCellId="0" sqref="C512"/>
+      <selection pane="topLeft" activeCell="C513" activeCellId="0" sqref="C513"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.66"/>
@@ -8797,6 +8807,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="C513" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="982">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2963,6 +2963,12 @@
   </si>
   <si>
     <t xml:space="preserve">تفرير الدرجات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشهادة</t>
   </si>
 </sst>
 </file>
@@ -3162,10 +3168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C513"/>
+  <dimension ref="A1:C514"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C513" activeCellId="0" sqref="C513"/>
+      <selection pane="topLeft" activeCell="C514" activeCellId="0" sqref="C514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8818,6 +8824,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="514" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C514" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="984">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2969,6 +2969,12 @@
   </si>
   <si>
     <t xml:space="preserve">الشهادة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance/viewAllAttendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كل الحضور</t>
   </si>
 </sst>
 </file>
@@ -3168,10 +3174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C514"/>
+  <dimension ref="A1:C515"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C514" activeCellId="0" sqref="C514"/>
+      <selection pane="topLeft" activeCell="C515" activeCellId="0" sqref="C515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8835,6 +8841,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C515" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -3177,7 +3177,7 @@
   <dimension ref="A1:C515"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C515" activeCellId="0" sqref="C515"/>
+      <selection pane="topLeft" activeCell="A512" activeCellId="0" sqref="A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8808,7 +8808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
         <v>976</v>
       </c>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="985">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2053,6 +2053,9 @@
     <t xml:space="preserve">استبيان</t>
   </si>
   <si>
+    <t xml:space="preserve">Attendance</t>
+  </si>
+  <si>
     <t xml:space="preserve">حضور</t>
   </si>
   <si>
@@ -2350,639 +2353,640 @@
     <t xml:space="preserve">إعلاناتي</t>
   </si>
   <si>
-    <t xml:space="preserve">attendance/get-attendance</t>
+    <t xml:space="preserve">attendance/get-daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يومي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course/get-all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enroll/user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل الموظفين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enroll/mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل الطلاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">management/get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادارة المواد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles/add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اضافة وظيفة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles/get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادارة الوظائف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user/get-all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المستخدمون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user/logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السجلات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيلات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please_select_course_and_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من فضلك إختار الفصل و المادة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اخر فعل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سحب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there_is_no_data_to_show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا توجد بيانات لعرضها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msq_duration_finish_quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدة الاختبار انتهت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue_last_attemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تكملة المحاولة الاخيرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer_quiz_submitted_automatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم إرسال إجابة الاختبار تلقائيًا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msq_max_attemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لقد وصلت إلى الحد الأقصى لعدد المحاولات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عنصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محتوى الإجابة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg_student_not_do_ass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لم يرسل الطالب هذا الواجب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ الميلاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">والد/والدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrollment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التسجيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg_character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من فضلك أدخل الأحرف فقط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete_import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف المستخدمين في الملف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أضف المستخدمين من الملف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أنواع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إخفاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إظهار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user/set-parent-child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعيين الآباء والأبناء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاسم المختصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاسم بالكامل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نموذج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_question_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملحوظة السؤال يتم تعيينه لجميع الفصول والدروس في المادة المحددة فقط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_per_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد العناصر في الصفحة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this_record_is_hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم انتهاء وقت توفير التسجيل الخاص بهذا الفصل الافتراضي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shuffling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خلط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questions_answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أسئلة وأجوبة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_shuffle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بدون خلط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose_your_son!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من فضلك ، اختر ابنك / ابنتك!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_see_his/her_progress_and_overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لمعرفة التقدم المحرز له / لها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you_don`t_have_any_children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليس لديك أطفال متاحون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch_son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختر ابنًا آخر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you_chating_about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أنت تدردش مع / حول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرسائل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_something_here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اكتب شيئًا هنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compose_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رسالة مجمعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أسبوع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شهر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view_attemps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض المحاولات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write_here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اكتب هنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فيديو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل صوتي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finsh_recording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إنهاء التسجيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توقف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لم تجب على هذه المهمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write_your_comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اكتب تعليقك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there_are_no_parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يوجد آباء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسم المدرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lesson_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسم الدرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد الطلاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attend_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد الحضور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد الغياب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بداية الحصة الافتراضية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نهاية الحصة الافتراضية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">late_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدة التاخير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actutal_end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ الانتهاء الفعلي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actutal_start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ البدء الفعلي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark_all_as_read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قراءة الكل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports/active_users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير المستخدمين النشطين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التقارير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متصل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غير متصل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true/false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطأ/صح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا ملف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active_user_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_active_student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد الطلاب النشطين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specific_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وقت محدد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رسم بياني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إعادة تحميل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports/in_active_users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير المستخدمين غير النشطين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inactive_user_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير المستخدمين غير النشطين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports/overall_seen_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير المشاهدات العام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير المشاهدات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العنصر المرئي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد المستخدمين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوهد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must_choose_file_or_content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يجب عليك اختيار ملف أو محتوى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حاليا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أنت لم تجب على هذه المهمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publish_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ النشر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رابط مضمن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غير صحيح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you_didn't_answer_this_quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لم تجب على هذا الاختبار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_edit_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السماح للطلاب بتعديل الإجابة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg_confirm_edit_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هل أنت متأكد أنك تريد تعديل إجابتك؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance/report-attendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير الغياب والحضور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/fgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تفرير الدرجات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشهادة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance/viewAllAttendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كل الحضور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance/get-sessions</t>
   </si>
   <si>
     <t xml:space="preserve">جميع الحصص</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attendance/get-daily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يومي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course/get-all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enroll/user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تسجيل الموظفين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enroll/mandatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تسجيل الطلاب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">management/get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ادارة المواد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roles/add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اضافة وظيفة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roles/get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ادارة الوظائف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user/get-all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المستخدمون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user/logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السجلات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تسجيلات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">please_select_course_and_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">من فضلك إختار الفصل و المادة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اخر فعل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سحب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there_is_no_data_to_show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لا توجد بيانات لعرضها</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msq_duration_finish_quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدة الاختبار انتهت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue_last_attemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تكملة المحاولة الاخيرة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">answer_quiz_submitted_automatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تم إرسال إجابة الاختبار تلقائيًا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msq_max_attemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لقد وصلت إلى الحد الأقصى لعدد المحاولات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عنصر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">content_answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محتوى الإجابة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg_student_not_do_ass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لم يرسل الطالب هذا الواجب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birthdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تاريخ الميلاد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">والد/والدة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enrollment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التسجيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg_character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">من فضلك أدخل الأحرف فقط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete_import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حذف المستخدمين في الملف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أضف المستخدمين من الملف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أنواع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إخفاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إظهار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user/set-parent-child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تعيين الآباء والأبناء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الاسم المختصر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الاسم بالكامل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نموذج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_question_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ملحوظة السؤال يتم تعيينه لجميع الفصول والدروس في المادة المحددة فقط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_per_page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد العناصر في الصفحة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this_record_is_hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تم انتهاء وقت توفير التسجيل الخاص بهذا الفصل الافتراضي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shuffling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خلط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questions_answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أسئلة وأجوبة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_shuffle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بدون خلط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choose_your_son!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">من فضلك ، اختر ابنك / ابنتك!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to_see_his/her_progress_and_overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لمعرفة التقدم المحرز له / لها</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you_don`t_have_any_children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ليس لديك أطفال متاحون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switch_son</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختر ابنًا آخر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you_chating_about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أنت تدردش مع / حول</t>
-  </si>
-  <si>
-    <t xml:space="preserve">messages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الرسائل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_something_here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اكتب شيئًا هنا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compose_message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رسالة مجمعة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أسبوع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شهر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">view_attemps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عرض المحاولات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write_here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اكتب هنا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فيديو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تسجيل صوتي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finsh_recording</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إنهاء التسجيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">توقف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لم تجب على هذه المهمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write_your_comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اكتب تعليقك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there_are_no_parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لا يوجد آباء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attendance_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teacher_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسم المدرس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lesson_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسم الدرس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد الطلاب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attend_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد الحضور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد الغياب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بداية الحصة الافتراضية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class_end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نهاية الحصة الافتراضية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">late_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدة التاخير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actutal_end_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تاريخ الانتهاء الفعلي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actutal_start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تاريخ البدء الفعلي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark_all_as_read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قراءة الكل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reports/active_users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تقرير المستخدمين النشطين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التقارير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">متصل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غير متصل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true/false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خطأ/صح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لا ملف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active_user_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_active_student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد الطلاب النشطين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specific_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">وقت محدد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رسم بياني</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إعادة تحميل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since</t>
-  </si>
-  <si>
-    <t xml:space="preserve">منذ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reports/in_active_users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تقرير المستخدمين غير النشطين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inactive_user_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تقرير المستخدمين غير النشطين </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مجموعة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reports/overall_seen_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تقرير المشاهدات العام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seen_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تقرير المشاهدات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seen_item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العنصر المرئي </t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد المستخدمين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شوهد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">must_choose_file_or_content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يجب عليك اختيار ملف أو محتوى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حاليا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أنت لم تجب على هذه المهمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publish_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تاريخ النشر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رابط مضمن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غير صحيح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you_didn't_answer_this_quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لم تجب على هذا الاختبار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_edit_answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السماح للطلاب بتعديل الإجابة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg_confirm_edit_answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هل أنت متأكد أنك تريد تعديل إجابتك؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attendance/report-attendance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تقرير الغياب والحضور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report_card/fgl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تفرير الدرجات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report_card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الشهادة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attendance/viewAllAttendance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كل الحضور</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2990,7 +2994,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3013,21 +3016,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8092A3"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3072,8 +3072,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3174,13 +3178,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C515"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A512" activeCellId="0" sqref="A512"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A502" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B513" activeCellId="0" sqref="B513"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.66"/>
@@ -3188,7 +3192,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
@@ -3276,7 +3280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>29</v>
       </c>
@@ -3353,7 +3357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>35</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>37</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>39</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>41</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>43</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>45</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>47</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>49</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>51</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>53</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>54</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>56</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>58</v>
       </c>
@@ -3518,7 +3522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>60</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>62</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>64</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>66</v>
       </c>
@@ -3562,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>68</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>70</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>72</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>74</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>76</v>
       </c>
@@ -3617,7 +3621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>78</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>80</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>82</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>84</v>
       </c>
@@ -3661,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>86</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>88</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>90</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>92</v>
       </c>
@@ -3705,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>94</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>96</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>98</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>100</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>102</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>104</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>106</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>108</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>110</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>112</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>114</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>116</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>118</v>
       </c>
@@ -3848,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>120</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>122</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>124</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>126</v>
       </c>
@@ -3892,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>128</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>130</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>132</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>134</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>136</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>138</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>140</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>142</v>
       </c>
@@ -3980,7 +3984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>144</v>
       </c>
@@ -3991,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>146</v>
       </c>
@@ -4002,8 +4006,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4014,8 +4018,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>150</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>152</v>
       </c>
@@ -4048,7 +4052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>154</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>156</v>
       </c>
@@ -4070,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>158</v>
       </c>
@@ -4081,7 +4085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>160</v>
       </c>
@@ -4092,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>162</v>
       </c>
@@ -4103,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>163</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>165</v>
       </c>
@@ -4125,7 +4129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>167</v>
       </c>
@@ -4136,7 +4140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>169</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>171</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>173</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>175</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>177</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>179</v>
       </c>
@@ -4202,7 +4206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>181</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>183</v>
       </c>
@@ -4224,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>185</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>187</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>189</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>191</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>193</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>195</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>197</v>
       </c>
@@ -4301,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>199</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>201</v>
       </c>
@@ -4323,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>203</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>205</v>
       </c>
@@ -4345,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>207</v>
       </c>
@@ -4356,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>209</v>
       </c>
@@ -4367,7 +4371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>211</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>213</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>215</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>217</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>219</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>221</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>223</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>225</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>227</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>229</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>231</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>233</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>235</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>237</v>
       </c>
@@ -4521,7 +4525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>239</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>241</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>243</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>245</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>247</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>249</v>
       </c>
@@ -4587,7 +4591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>251</v>
       </c>
@@ -4598,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>253</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>254</v>
       </c>
@@ -4620,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>255</v>
       </c>
@@ -4631,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>257</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>259</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>261</v>
       </c>
@@ -4664,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>263</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>265</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>267</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>269</v>
       </c>
@@ -4708,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>271</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>273</v>
       </c>
@@ -4730,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>275</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>277</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>279</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>281</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>283</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>285</v>
       </c>
@@ -4796,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>287</v>
       </c>
@@ -4807,7 +4811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>289</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>291</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>293</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>295</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>297</v>
       </c>
@@ -4862,7 +4866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>299</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>301</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>303</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>305</v>
       </c>
@@ -4906,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>307</v>
       </c>
@@ -4917,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>309</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>311</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>313</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>315</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>317</v>
       </c>
@@ -4972,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>319</v>
       </c>
@@ -4983,7 +4987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>321</v>
       </c>
@@ -4994,7 +4998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>323</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>325</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>327</v>
       </c>
@@ -5027,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>329</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>331</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>333</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>335</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>337</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>339</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>341</v>
       </c>
@@ -5104,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>343</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>345</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>347</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>349</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>351</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>353</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>355</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>356</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>358</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>359</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>361</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>363</v>
       </c>
@@ -5236,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>365</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>366</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>368</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>370</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>372</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>374</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>376</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>378</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>380</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>382</v>
       </c>
@@ -5346,7 +5350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>384</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>386</v>
       </c>
@@ -5368,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>388</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>390</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>392</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>394</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>396</v>
       </c>
@@ -5423,7 +5427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>398</v>
       </c>
@@ -5434,7 +5438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>400</v>
       </c>
@@ -5445,7 +5449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>402</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>404</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>406</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>408</v>
       </c>
@@ -5489,7 +5493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>410</v>
       </c>
@@ -5500,7 +5504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>412</v>
       </c>
@@ -5511,7 +5515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>414</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>416</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>418</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>420</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>422</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>424</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>426</v>
       </c>
@@ -5588,7 +5592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>428</v>
       </c>
@@ -5599,7 +5603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>430</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>432</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>434</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>436</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>438</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>440</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>442</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>444</v>
       </c>
@@ -5687,7 +5691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>446</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>448</v>
       </c>
@@ -5709,7 +5713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>450</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>452</v>
       </c>
@@ -5731,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>453</v>
       </c>
@@ -5742,7 +5746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>455</v>
       </c>
@@ -5753,7 +5757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>457</v>
       </c>
@@ -5764,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>459</v>
       </c>
@@ -5775,7 +5779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>461</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>463</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>465</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>467</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>469</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>471</v>
       </c>
@@ -5841,7 +5845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>473</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>475</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>477</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>479</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>481</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>483</v>
       </c>
@@ -5907,7 +5911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>485</v>
       </c>
@@ -5918,7 +5922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>487</v>
       </c>
@@ -5929,7 +5933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>489</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>491</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>493</v>
       </c>
@@ -5962,7 +5966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>495</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>497</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>499</v>
       </c>
@@ -5995,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>500</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>502</v>
       </c>
@@ -6017,7 +6021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>504</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>506</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>508</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>510</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>512</v>
       </c>
@@ -6072,7 +6076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>514</v>
       </c>
@@ -6083,7 +6087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>516</v>
       </c>
@@ -6094,7 +6098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>518</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>520</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>522</v>
       </c>
@@ -6127,7 +6131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>1</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>525</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>527</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>529</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>531</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>533</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>535</v>
       </c>
@@ -6204,7 +6208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>537</v>
       </c>
@@ -6215,7 +6219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>539</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>541</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>543</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>544</v>
       </c>
@@ -6259,7 +6263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>546</v>
       </c>
@@ -6270,7 +6274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>548</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>550</v>
       </c>
@@ -6292,7 +6296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>552</v>
       </c>
@@ -6303,7 +6307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>554</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>556</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>558</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>560</v>
       </c>
@@ -6347,7 +6351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>562</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>564</v>
       </c>
@@ -6369,7 +6373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>566</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>568</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>570</v>
       </c>
@@ -6402,7 +6406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>571</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>573</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>575</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>577</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>579</v>
       </c>
@@ -6457,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>580</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>581</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>582</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>584</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>586</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>588</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>590</v>
       </c>
@@ -6534,7 +6538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>592</v>
       </c>
@@ -6545,7 +6549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>594</v>
       </c>
@@ -6556,7 +6560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>596</v>
       </c>
@@ -6567,7 +6571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>598</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>600</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>602</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>604</v>
       </c>
@@ -6611,7 +6615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>606</v>
       </c>
@@ -6622,7 +6626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>608</v>
       </c>
@@ -6633,7 +6637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>610</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>612</v>
       </c>
@@ -6655,7 +6659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>613</v>
       </c>
@@ -6666,7 +6670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>615</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>617</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>619</v>
       </c>
@@ -6699,7 +6703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>621</v>
       </c>
@@ -6710,7 +6714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>623</v>
       </c>
@@ -6721,8 +6725,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="s">
+    <row r="322" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="s">
         <v>625</v>
       </c>
       <c r="B322" s="0" t="s">
@@ -6732,7 +6736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>627</v>
       </c>
@@ -6743,7 +6747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>629</v>
       </c>
@@ -6754,7 +6758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>631</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>633</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>635</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>637</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>639</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>641</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>643</v>
       </c>
@@ -6831,7 +6835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>644</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>646</v>
       </c>
@@ -6853,7 +6857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>648</v>
       </c>
@@ -6864,7 +6868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>650</v>
       </c>
@@ -6875,7 +6879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>652</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>654</v>
       </c>
@@ -6897,1961 +6901,1943 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="n">
-        <v>0</v>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>656</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>149</v>
+        <v>657</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="n">
-        <v>1</v>
+    <row r="339" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>658</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>148</v>
+        <v>659</v>
       </c>
       <c r="C339" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C340" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C342" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C343" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C344" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C346" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
-        <v>670</v>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C348" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="s">
-        <v>674</v>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>678</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C349" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>680</v>
+      </c>
       <c r="B350" s="0" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C350" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="C351" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="C352" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="C353" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="C354" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C355" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="C356" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C357" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C358" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C359" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="C360" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="C361" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C362" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C363" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C364" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="C365" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="C366" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="C367" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C369" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="C370" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B371" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="C371" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="C372" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="C373" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="C374" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C375" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C376" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="C377" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="C378" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="C379" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="C380" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="C381" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="C382" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C383" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="C384" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="C385" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="C386" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C387" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="C388" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C389" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="C390" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C391" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="C392" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="C393" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="C394" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="C395" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="C396" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="C397" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C398" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="C399" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="C400" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C401" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C402" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="C403" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="C404" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="C405" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="C406" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="C407" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="C408" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C409" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C410" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C411" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="C412" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="C413" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C414" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="C415" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="C416" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="C417" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C418" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="C419" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C420" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C421" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C422" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="C423" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C424" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C425" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="C426" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="C427" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C428" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="C429" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="C430" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C431" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C432" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C433" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="C434" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="C435" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="C436" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="C437" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="C438" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="C351" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+      <c r="B439" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B352" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="C352" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="C353" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="C354" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="C355" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="C356" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="C357" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="C358" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="C359" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="C360" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="C361" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="C362" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="C363" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="C364" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="C365" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="C366" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+      <c r="C439" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="C440" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="C441" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C442" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="C443" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="C444" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="C445" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="C446" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="C447" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="C448" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C449" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="C450" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C451" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="C452" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="C453" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="C454" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="C455" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="C456" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="C457" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="C458" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="C459" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="C460" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="C461" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="C462" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="C463" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C464" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="C465" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="B466" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="B367" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="C367" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="C368" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="C369" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="C370" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="C371" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="C372" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="C373" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="C374" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="C375" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="C376" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="C377" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="C378" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="C379" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="C380" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="C381" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="C382" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="C383" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="C384" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="C385" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="C386" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="C387" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="C388" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="C389" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="C390" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="C391" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="C392" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="C393" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C394" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="C395" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="B396" s="0" t="s">
+      <c r="C466" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="C467" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="C468" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="C469" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="C470" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="C471" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C472" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="C473" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="C474" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C475" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C476" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="C477" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="C478" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="C479" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="C480" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="C481" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="C482" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="C483" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="C484" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="C485" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="C486" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="C487" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="C488" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="C489" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="C490" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C491" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C492" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="C493" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="C494" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="C495" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C496" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C497" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="C498" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="C499" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="C500" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C501" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="C396" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="C397" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="C398" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="C399" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="B400" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C400" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="C401" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="C402" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="C403" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C404" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="C405" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="B406" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="C406" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="C407" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="C408" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="C409" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="C410" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="C411" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="412" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="C412" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="413" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="C413" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="414" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C414" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="C415" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="B416" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="C416" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="B417" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="C417" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="C418" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="C419" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C420" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C421" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="C422" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="C423" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="B424" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="C424" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="C425" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="C426" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="C427" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="C428" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="B429" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="C429" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="B430" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="C430" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="C431" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="B432" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C432" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="C433" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C434" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C435" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="C436" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="C437" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="C438" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="C439" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="C440" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="C441" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="C442" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="C443" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="C444" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="C445" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="C446" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="C447" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="C448" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="C449" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="C450" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
-        <v>864</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="C451" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C452" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>867</v>
-      </c>
-      <c r="C453" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="C454" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
-        <v>870</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>871</v>
-      </c>
-      <c r="C455" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
-        <v>872</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="C456" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="C457" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="C458" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="C459" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="C460" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="B461" s="0" t="s">
-        <v>883</v>
-      </c>
-      <c r="C461" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>885</v>
-      </c>
-      <c r="C462" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="C463" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
-        <v>888</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>889</v>
-      </c>
-      <c r="C464" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="C465" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="C466" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="C467" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="C468" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="C469" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="C470" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="C471" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>903</v>
-      </c>
-      <c r="C472" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>905</v>
-      </c>
-      <c r="C473" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>906</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="C474" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
-        <v>908</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>909</v>
-      </c>
-      <c r="C475" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>910</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="C476" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="C477" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="C478" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>917</v>
-      </c>
-      <c r="C479" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>919</v>
-      </c>
-      <c r="C480" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="0" t="s">
-        <v>920</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>921</v>
-      </c>
-      <c r="C481" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>923</v>
-      </c>
-      <c r="C482" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="0" t="s">
-        <v>924</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>925</v>
-      </c>
-      <c r="C483" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>927</v>
-      </c>
-      <c r="C484" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="0" t="s">
-        <v>928</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>929</v>
-      </c>
-      <c r="C485" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="486" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="0" t="s">
-        <v>930</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>931</v>
-      </c>
-      <c r="C486" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="B487" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C487" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
-        <v>933</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="C488" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="C489" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="C490" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="C491" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>942</v>
-      </c>
-      <c r="C492" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="C493" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="0" t="s">
-        <v>945</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C494" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C495" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="B496" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C496" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="C497" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>951</v>
-      </c>
-      <c r="C498" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C499" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="C500" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>957</v>
-      </c>
-      <c r="C501" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
-        <v>958</v>
-      </c>
       <c r="B502" s="0" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C502" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C503" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>962</v>
+        <v>590</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C504" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>763</v>
+        <v>967</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C505" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C506" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>590</v>
+        <v>971</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="C507" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="C508" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="C509" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="0" t="s">
-        <v>972</v>
+    <row r="510" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="6" t="s">
+        <v>977</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="C510" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="C511" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="0" t="s">
-        <v>976</v>
+    <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="6" t="s">
+        <v>981</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="C512" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="5" t="s">
-        <v>978</v>
+      <c r="A513" s="6" t="s">
+        <v>983</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C513" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="B514" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="C514" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="B515" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="C515" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="997">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2978,6 +2978,42 @@
   </si>
   <si>
     <t xml:space="preserve">جميع الحصص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/haramain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير درجات مدرسة الحرمين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/forsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير درجات مدرسة الفرسان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/mfis/boys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير درجات مدرسة  منارة الفاروق أولاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/mfis/girls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقرير درجات مدرسة  منارة الفاروق بنات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/mfis/manara-boys/printAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طباعة جميع تقارير الدرجات مدرسة  منارة الفاروق أولاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/mfis/manara-girls/printAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طباعة جميع تقارير الدرجات مدرسة  منارة الفاروق بنات</t>
   </si>
 </sst>
 </file>
@@ -2988,12 +3024,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3016,18 +3053,27 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8092A3"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3072,7 +3118,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3099,6 +3145,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3181,7 +3231,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A502" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B513" activeCellId="0" sqref="B513"/>
+      <selection pane="topLeft" activeCell="C519" activeCellId="0" sqref="C519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8837,6 +8887,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C514" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C515" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="C516" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C517" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C518" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C519" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="English_File__1_translated" vbProcedure="false">Sheet1!$A$1:$F$324</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="English_File__1_translated" vbProcedure="false">Sheet1!$A$1:$F$322</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -469,322 +469,322 @@
     <t xml:space="preserve">تصرف</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مضاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_an_attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حدد محاولة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محاولة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct_answer_well_done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إجابة صحيحة أحسنت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct</t>
+  </si>
+  <si>
     <t xml:space="preserve">صحيح</t>
   </si>
   <si>
+    <t xml:space="preserve">times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إجمالي الطلاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إجمالي التسجيلات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need_gradding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحتاج للتصحيح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غير مسجل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم التسجيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify_students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إبلاغ الطلاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حالة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_attempt_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميعاد أخر محاولة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محاولات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">درجة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وقت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصحح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_graded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غير مصحح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توقيت البدء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توقيت الإنتهاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علامة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_attempts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد المحاولات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إرسال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_your_answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مراجعة إجاباتك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msq_confirm_before_submit_quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأكد من عدم تخطي أي سؤال قبل الإرسال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجاب عنه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_answered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غير مجاب عنه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partly_answered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجاب عن بعضه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صفحه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أسئلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عودة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quiz_submitted_Successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم إرسال الإختبار بنجاح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msq_quiz_send_to_teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم إرسال إختبارك إلي معلمك و ستحصل علي درجتك قريبا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_to_course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عودة الي المنهج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer_again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جاوب مرة أخري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_your_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راجع إجابتك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msq_max_attempts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم الوصول للحد الأقصي لعدد المحاولات _لا يمكنك التقدم لمزيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msq_end_date_quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ الإنتهاء_لايمكنك التقدم للمزيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msq_quiz_didn't_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإختبار لم يبدأ بعد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_your_last_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راجع إجابتك الأخيرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quiz_answers_submitted_automatically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إجابات الإختبار ترسل تلقائيا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إنتهت المدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue_last_attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إستكمال اخر محاولة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msq_finish_quiz_duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المدة المحددة لك لم تنتهي بعد هل تريد الإستكمال؟؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أقصي علامة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أقصي درجة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نتائج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong</t>
+  </si>
+  <si>
     <t xml:space="preserve">خطأ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تاريخ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مضاف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عرض</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_an_attempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حدد محاولة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محاولة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correct_answer_well_done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إجابة صحيحة أحسنت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مرات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إجمالي الطلاب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_submissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إجمالي التسجيلات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need_gradding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تحتاج للتصحيح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_submitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غير مسجل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تم التسجيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notify_students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إبلاغ الطلاب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حالة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_attempt_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ميعاد أخر محاولة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attempts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محاولات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">درجة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">وقت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصحح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_graded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غير مصحح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">توقيت البدء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">توقيت الإنتهاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علامة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_attempts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد المحاولات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إرسال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_your_answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مراجعة إجاباتك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msq_confirm_before_submit_quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تأكد من عدم تخطي أي سؤال قبل الإرسال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">answered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مجاب عنه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_answered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غير مجاب عنه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partly_answered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مجاب عن بعضه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صفحه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أسئلة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عودة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quiz_submitted_Successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تم إرسال الإختبار بنجاح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msq_quiz_send_to_teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تم إرسال إختبارك إلي معلمك و ستحصل علي درجتك قريبا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back_to_course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عودة الي المنهج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">answer_again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جاوب مرة أخري</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_your_answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">راجع إجابتك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msq_max_attempts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تم الوصول للحد الأقصي لعدد المحاولات _لا يمكنك التقدم لمزيد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msq_end_date_quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تاريخ الإنتهاء_لايمكنك التقدم للمزيد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msq_quiz_didn't_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإختبار لم يبدأ بعد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_your_last_answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">راجع إجابتك الأخيرة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quiz_answers_submitted_automatically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إجابات الإختبار ترسل تلقائيا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duration_finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إنتهت المدة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسنا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue_last_attempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إستكمال اخر محاولة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msq_finish_quiz_duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> المدة المحددة لك لم تنتهي بعد هل تريد الإستكمال؟؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أقصي علامة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أقصي درجة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نتائج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong</t>
   </si>
   <si>
     <t xml:space="preserve">right</t>
@@ -3020,17 +3020,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3053,27 +3051,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8092A3"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3118,12 +3107,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3145,10 +3130,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3228,9 +3209,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A502" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A504" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C519" activeCellId="0" sqref="C519"/>
     </sheetView>
   </sheetViews>
@@ -4057,24 +4038,22 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="A75" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="A76" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2</v>
@@ -4082,10 +4061,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2</v>
@@ -4093,10 +4072,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2</v>
@@ -4104,10 +4083,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2</v>
@@ -4115,10 +4094,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2</v>
@@ -4126,10 +4105,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2</v>
@@ -4137,10 +4116,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2</v>
@@ -4148,10 +4127,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2</v>
@@ -4159,10 +4138,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2</v>
@@ -4170,10 +4149,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2</v>
@@ -4181,10 +4160,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2</v>
@@ -4192,10 +4171,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2</v>
@@ -4203,10 +4182,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -4214,10 +4193,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2</v>
@@ -4225,10 +4204,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2</v>
@@ -4236,10 +4215,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2</v>
@@ -4247,10 +4226,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2</v>
@@ -4258,10 +4237,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2</v>
@@ -4269,10 +4248,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2</v>
@@ -4280,10 +4259,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2</v>
@@ -4291,10 +4270,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
@@ -4302,10 +4281,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2</v>
@@ -4313,10 +4292,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>2</v>
@@ -4324,10 +4303,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>2</v>
@@ -4335,10 +4314,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2</v>
@@ -4346,10 +4325,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>2</v>
@@ -4357,10 +4336,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>2</v>
@@ -4368,10 +4347,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>2</v>
@@ -4379,10 +4358,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>2</v>
@@ -4390,10 +4369,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>2</v>
@@ -4401,10 +4380,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>2</v>
@@ -4412,10 +4391,10 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2</v>
@@ -4423,10 +4402,10 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2</v>
@@ -4434,10 +4413,10 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>2</v>
@@ -4445,10 +4424,10 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2</v>
@@ -4456,10 +4435,10 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>2</v>
@@ -4467,10 +4446,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2</v>
@@ -4478,10 +4457,10 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2</v>
@@ -4489,54 +4468,54 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2</v>
@@ -4544,10 +4523,10 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2</v>
@@ -4555,10 +4534,10 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>2</v>
@@ -4566,10 +4545,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2</v>
@@ -4577,10 +4556,10 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>2</v>
@@ -4588,10 +4567,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>2</v>
@@ -4599,10 +4578,10 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
@@ -4610,10 +4589,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
@@ -4621,10 +4600,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
@@ -4632,10 +4611,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
@@ -4643,10 +4622,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
@@ -4654,10 +4633,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>2</v>
@@ -4665,10 +4644,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>2</v>
@@ -4676,10 +4655,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
@@ -4687,10 +4666,10 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2</v>
@@ -4698,32 +4677,32 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>2</v>
@@ -4731,10 +4710,10 @@
     </row>
     <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>2</v>
@@ -4742,10 +4721,10 @@
     </row>
     <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2</v>
@@ -4753,32 +4732,32 @@
     </row>
     <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2</v>
@@ -4786,54 +4765,54 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2</v>
@@ -4841,10 +4820,10 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>2</v>
@@ -4852,10 +4831,10 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>2</v>
@@ -4863,10 +4842,10 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2</v>
@@ -4874,10 +4853,10 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2</v>
@@ -4885,32 +4864,32 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2</v>
@@ -4918,32 +4897,32 @@
     </row>
     <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2</v>
@@ -4951,10 +4930,10 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>2</v>
@@ -4962,10 +4941,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>2</v>
@@ -4973,10 +4952,10 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2</v>
@@ -4984,10 +4963,10 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2</v>
@@ -4995,10 +4974,10 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>2</v>
@@ -5006,10 +4985,10 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2</v>
@@ -5017,10 +4996,10 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2</v>
@@ -5028,10 +5007,10 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2</v>
@@ -5039,10 +5018,10 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2</v>
@@ -5050,10 +5029,10 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2</v>
@@ -5061,10 +5040,10 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2</v>
@@ -5072,10 +5051,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>2</v>
@@ -5083,10 +5062,10 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2</v>
@@ -5094,10 +5073,10 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2</v>
@@ -5105,10 +5084,10 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>2</v>
@@ -5116,10 +5095,10 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>2</v>
@@ -5127,10 +5106,10 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>2</v>
@@ -5138,10 +5117,10 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2</v>
@@ -5149,10 +5128,10 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>2</v>
@@ -5160,10 +5139,10 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>2</v>
@@ -5171,10 +5150,10 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2</v>
@@ -5182,10 +5161,10 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>2</v>
@@ -5193,10 +5172,10 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>2</v>
@@ -5204,10 +5183,10 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>2</v>
@@ -5215,10 +5194,10 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>2</v>
@@ -5226,10 +5205,10 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>2</v>
@@ -5237,10 +5216,10 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>2</v>
@@ -5248,10 +5227,10 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>127</v>
+        <v>362</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2</v>
@@ -5259,10 +5238,10 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>2</v>
@@ -5270,10 +5249,10 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>2</v>
@@ -5281,10 +5260,10 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>2</v>
@@ -5292,10 +5271,10 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2</v>
@@ -5303,10 +5282,10 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2</v>
@@ -5314,10 +5293,10 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2</v>
@@ -5325,21 +5304,21 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2</v>
@@ -5347,21 +5326,21 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>2</v>
@@ -5369,10 +5348,10 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2</v>
@@ -5380,10 +5359,10 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>2</v>
@@ -5391,10 +5370,10 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2</v>
@@ -5402,10 +5381,10 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2</v>
@@ -5413,10 +5392,10 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>2</v>
@@ -5424,10 +5403,10 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>2</v>
@@ -5435,10 +5414,10 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2</v>
@@ -5446,10 +5425,10 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>2</v>
@@ -5457,10 +5436,10 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>2</v>
@@ -5468,10 +5447,10 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>2</v>
@@ -5479,10 +5458,10 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>2</v>
@@ -5490,10 +5469,10 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>2</v>
@@ -5501,10 +5480,10 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>2</v>
@@ -5512,10 +5491,10 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>2</v>
@@ -5523,10 +5502,10 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>2</v>
@@ -5534,10 +5513,10 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>2</v>
@@ -5545,10 +5524,10 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>2</v>
@@ -5556,10 +5535,10 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>2</v>
@@ -5567,10 +5546,10 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2</v>
@@ -5578,10 +5557,10 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>2</v>
@@ -5589,10 +5568,10 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>2</v>
@@ -5600,10 +5579,10 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>2</v>
@@ -5611,10 +5590,10 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>2</v>
@@ -5622,10 +5601,10 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>2</v>
@@ -5633,10 +5612,10 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>2</v>
@@ -5644,10 +5623,10 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>2</v>
@@ -5655,10 +5634,10 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>2</v>
@@ -5666,10 +5645,10 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>2</v>
@@ -5677,10 +5656,10 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>2</v>
@@ -5688,10 +5667,10 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>2</v>
@@ -5699,10 +5678,10 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>2</v>
@@ -5710,10 +5689,10 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>2</v>
@@ -5721,10 +5700,10 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>2</v>
@@ -5732,21 +5711,21 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>2</v>
@@ -5754,21 +5733,21 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>2</v>
@@ -5776,10 +5755,10 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>2</v>
@@ -5787,10 +5766,10 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>2</v>
@@ -5798,10 +5777,10 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>2</v>
@@ -5809,10 +5788,10 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>2</v>
@@ -5820,10 +5799,10 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>2</v>
@@ -5831,10 +5810,10 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>2</v>
@@ -5842,10 +5821,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>2</v>
@@ -5853,21 +5832,21 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>2</v>
@@ -5875,21 +5854,21 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>2</v>
@@ -5897,10 +5876,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>2</v>
@@ -5908,10 +5887,10 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>2</v>
@@ -5919,10 +5898,10 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>2</v>
@@ -5930,10 +5909,10 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>2</v>
@@ -5941,21 +5920,21 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>2</v>
@@ -5963,21 +5942,21 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>2</v>
@@ -5985,10 +5964,10 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>2</v>
@@ -5996,10 +5975,10 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>2</v>
@@ -6007,10 +5986,10 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>2</v>
@@ -6018,10 +5997,10 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>496</v>
+        <v>413</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>2</v>
@@ -6029,10 +6008,10 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>2</v>
@@ -6040,10 +6019,10 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>413</v>
+        <v>503</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>2</v>
@@ -6051,10 +6030,10 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C256" s="0" t="n">
         <v>2</v>
@@ -6062,10 +6041,10 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>2</v>
@@ -6073,10 +6052,10 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>2</v>
@@ -6084,10 +6063,10 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>2</v>
@@ -6095,10 +6074,10 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>2</v>
@@ -6106,10 +6085,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>2</v>
@@ -6117,10 +6096,10 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>2</v>
@@ -6128,10 +6107,10 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>2</v>
@@ -6139,10 +6118,10 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>2</v>
@@ -6150,10 +6129,10 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>2</v>
@@ -6161,10 +6140,10 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>2</v>
@@ -6172,10 +6151,10 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>2</v>
@@ -6183,10 +6162,10 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>1</v>
+        <v>527</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>2</v>
@@ -6194,10 +6173,10 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>2</v>
@@ -6205,10 +6184,10 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>2</v>
@@ -6216,10 +6195,10 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>2</v>
@@ -6227,10 +6206,10 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>2</v>
@@ -6238,10 +6217,10 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>2</v>
@@ -6249,10 +6228,10 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>2</v>
@@ -6260,10 +6239,10 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>2</v>
@@ -6271,10 +6250,10 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>540</v>
+        <v>28</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>2</v>
@@ -6282,10 +6261,10 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>2</v>
@@ -6293,10 +6272,10 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>28</v>
+        <v>547</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>2</v>
@@ -6304,10 +6283,10 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>2</v>
@@ -6315,10 +6294,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>2</v>
@@ -6326,10 +6305,10 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>2</v>
@@ -6337,10 +6316,10 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>2</v>
@@ -6348,21 +6327,21 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C283" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C284" s="0" t="n">
         <v>2</v>
@@ -6370,10 +6349,10 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C285" s="0" t="n">
         <v>2</v>
@@ -6381,43 +6360,43 @@
     </row>
     <row r="286" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C286" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C287" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C288" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C289" s="0" t="n">
         <v>2</v>
@@ -6425,10 +6404,10 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>567</v>
+        <v>260</v>
       </c>
       <c r="C290" s="0" t="n">
         <v>2</v>
@@ -6436,10 +6415,10 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C291" s="0" t="n">
         <v>2</v>
@@ -6447,10 +6426,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>260</v>
+        <v>574</v>
       </c>
       <c r="C292" s="0" t="n">
         <v>2</v>
@@ -6458,10 +6437,10 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C293" s="0" t="n">
         <v>2</v>
@@ -6469,10 +6448,10 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C294" s="0" t="n">
         <v>2</v>
@@ -6480,10 +6459,10 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>576</v>
+        <v>4</v>
       </c>
       <c r="C295" s="0" t="n">
         <v>2</v>
@@ -6491,10 +6470,10 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>578</v>
+        <v>362</v>
       </c>
       <c r="C296" s="0" t="n">
         <v>2</v>
@@ -6502,10 +6481,10 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>4</v>
+        <v>364</v>
       </c>
       <c r="C297" s="0" t="n">
         <v>2</v>
@@ -6513,10 +6492,10 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>362</v>
+        <v>583</v>
       </c>
       <c r="C298" s="0" t="n">
         <v>2</v>
@@ -6524,10 +6503,10 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>364</v>
+        <v>585</v>
       </c>
       <c r="C299" s="0" t="n">
         <v>2</v>
@@ -6535,10 +6514,10 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C300" s="0" t="n">
         <v>2</v>
@@ -6546,10 +6525,10 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C301" s="0" t="n">
         <v>2</v>
@@ -6557,10 +6536,10 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C302" s="0" t="n">
         <v>2</v>
@@ -6568,10 +6547,10 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C303" s="0" t="n">
         <v>2</v>
@@ -6579,10 +6558,10 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C304" s="0" t="n">
         <v>2</v>
@@ -6590,10 +6569,10 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C305" s="0" t="n">
         <v>2</v>
@@ -6601,10 +6580,10 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C306" s="0" t="n">
         <v>2</v>
@@ -6612,10 +6591,10 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C307" s="0" t="n">
         <v>2</v>
@@ -6623,10 +6602,10 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C308" s="0" t="n">
         <v>2</v>
@@ -6634,10 +6613,10 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C309" s="0" t="n">
         <v>2</v>
@@ -6645,10 +6624,10 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C310" s="0" t="n">
         <v>2</v>
@@ -6656,10 +6635,10 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C311" s="0" t="n">
         <v>2</v>
@@ -6667,10 +6646,10 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C312" s="0" t="n">
         <v>2</v>
@@ -6678,10 +6657,10 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>609</v>
+        <v>513</v>
       </c>
       <c r="C313" s="0" t="n">
         <v>2</v>
@@ -6689,10 +6668,10 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C314" s="0" t="n">
         <v>2</v>
@@ -6700,10 +6679,10 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>513</v>
+        <v>616</v>
       </c>
       <c r="C315" s="0" t="n">
         <v>2</v>
@@ -6711,10 +6690,10 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C316" s="0" t="n">
         <v>2</v>
@@ -6722,10 +6701,10 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C317" s="0" t="n">
         <v>2</v>
@@ -6733,10 +6712,10 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C318" s="0" t="n">
         <v>2</v>
@@ -6744,21 +6723,21 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C319" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
-        <v>621</v>
+    <row r="320" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C320" s="0" t="n">
         <v>2</v>
@@ -6766,21 +6745,21 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C321" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
-        <v>625</v>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>629</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C322" s="0" t="n">
         <v>2</v>
@@ -6788,10 +6767,10 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C323" s="0" t="n">
         <v>2</v>
@@ -6799,10 +6778,10 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C324" s="0" t="n">
         <v>2</v>
@@ -6810,10 +6789,10 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C325" s="0" t="n">
         <v>2</v>
@@ -6821,10 +6800,10 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C326" s="0" t="n">
         <v>2</v>
@@ -6832,10 +6811,10 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C327" s="0" t="n">
         <v>2</v>
@@ -6843,10 +6822,10 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C328" s="0" t="n">
         <v>2</v>
@@ -6854,10 +6833,10 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>640</v>
+        <v>595</v>
       </c>
       <c r="C329" s="0" t="n">
         <v>2</v>
@@ -6865,10 +6844,10 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C330" s="0" t="n">
         <v>2</v>
@@ -6876,10 +6855,10 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>595</v>
+        <v>647</v>
       </c>
       <c r="C331" s="0" t="n">
         <v>2</v>
@@ -6887,10 +6866,10 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C332" s="0" t="n">
         <v>2</v>
@@ -6898,10 +6877,10 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C333" s="0" t="n">
         <v>2</v>
@@ -6909,10 +6888,10 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C334" s="0" t="n">
         <v>2</v>
@@ -6920,10 +6899,10 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C335" s="0" t="n">
         <v>2</v>
@@ -6931,21 +6910,21 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C336" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C337" s="0" t="n">
         <v>2</v>
@@ -6953,21 +6932,21 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C339" s="0" t="n">
         <v>2</v>
@@ -6975,10 +6954,10 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C340" s="0" t="n">
         <v>2</v>
@@ -6986,10 +6965,10 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>2</v>
@@ -6997,10 +6976,10 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C342" s="0" t="n">
         <v>2</v>
@@ -7008,10 +6987,10 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C343" s="0" t="n">
         <v>2</v>
@@ -7019,21 +6998,21 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C344" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
-        <v>670</v>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>2</v>
@@ -7041,21 +7020,21 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C346" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="3" t="s">
-        <v>674</v>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>678</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>2</v>
@@ -7063,10 +7042,10 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C348" s="0" t="n">
         <v>2</v>
@@ -7074,10 +7053,10 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C349" s="0" t="n">
         <v>2</v>
@@ -7085,21 +7064,21 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>680</v>
+        <v>94</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C350" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
-        <v>682</v>
+      <c r="A351" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C351" s="0" t="n">
         <v>2</v>
@@ -7107,21 +7086,21 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>94</v>
+        <v>687</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C352" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="4" t="s">
-        <v>685</v>
+      <c r="A353" s="0" t="s">
+        <v>689</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C353" s="0" t="n">
         <v>2</v>
@@ -7129,10 +7108,10 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C354" s="0" t="n">
         <v>2</v>
@@ -7140,10 +7119,10 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C355" s="0" t="n">
         <v>2</v>
@@ -7151,10 +7130,10 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C356" s="0" t="n">
         <v>2</v>
@@ -7162,10 +7141,10 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C357" s="0" t="n">
         <v>2</v>
@@ -7173,10 +7152,10 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C358" s="0" t="n">
         <v>2</v>
@@ -7184,10 +7163,10 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C359" s="0" t="n">
         <v>2</v>
@@ -7195,10 +7174,10 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>700</v>
+        <v>703</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="C360" s="0" t="n">
         <v>2</v>
@@ -7206,10 +7185,10 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C361" s="0" t="n">
         <v>2</v>
@@ -7217,10 +7196,10 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>704</v>
+        <v>707</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="C362" s="0" t="n">
         <v>2</v>
@@ -7228,10 +7207,10 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C363" s="0" t="n">
         <v>2</v>
@@ -7239,10 +7218,10 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="B364" s="5" t="s">
-        <v>708</v>
+        <v>711</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>712</v>
       </c>
       <c r="C364" s="0" t="n">
         <v>2</v>
@@ -7250,10 +7229,10 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C365" s="0" t="n">
         <v>2</v>
@@ -7261,10 +7240,10 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C366" s="0" t="n">
         <v>2</v>
@@ -7272,10 +7251,10 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C367" s="0" t="n">
         <v>2</v>
@@ -7283,10 +7262,10 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C368" s="0" t="n">
         <v>2</v>
@@ -7294,10 +7273,10 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>718</v>
+        <v>677</v>
       </c>
       <c r="C369" s="0" t="n">
         <v>2</v>
@@ -7305,21 +7284,21 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C370" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="C371" s="0" t="n">
         <v>2</v>
@@ -7327,21 +7306,21 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>723</v>
+        <v>677</v>
       </c>
       <c r="C372" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>728</v>
       </c>
       <c r="C373" s="0" t="n">
         <v>2</v>
@@ -7349,10 +7328,10 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>677</v>
+        <v>729</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>730</v>
       </c>
       <c r="C374" s="0" t="n">
         <v>2</v>
@@ -7360,10 +7339,10 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="B375" s="5" t="s">
-        <v>728</v>
+        <v>731</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>732</v>
       </c>
       <c r="C375" s="0" t="n">
         <v>2</v>
@@ -7371,10 +7350,10 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="B376" s="5" t="s">
-        <v>730</v>
+        <v>733</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>734</v>
       </c>
       <c r="C376" s="0" t="n">
         <v>2</v>
@@ -7382,10 +7361,10 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C377" s="0" t="n">
         <v>2</v>
@@ -7393,10 +7372,10 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C378" s="0" t="n">
         <v>2</v>
@@ -7404,10 +7383,10 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C379" s="0" t="n">
         <v>2</v>
@@ -7415,10 +7394,10 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C380" s="0" t="n">
         <v>2</v>
@@ -7426,10 +7405,10 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C381" s="0" t="n">
         <v>2</v>
@@ -7437,10 +7416,10 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>742</v>
+        <v>679</v>
       </c>
       <c r="C382" s="0" t="n">
         <v>2</v>
@@ -7448,10 +7427,10 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C383" s="0" t="n">
         <v>2</v>
@@ -7459,10 +7438,10 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>679</v>
+        <v>749</v>
       </c>
       <c r="C384" s="0" t="n">
         <v>2</v>
@@ -7470,10 +7449,10 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>751</v>
       </c>
       <c r="C385" s="0" t="n">
         <v>2</v>
@@ -7481,10 +7460,10 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C386" s="0" t="n">
         <v>2</v>
@@ -7492,10 +7471,10 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="B387" s="5" t="s">
-        <v>751</v>
+        <v>754</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>755</v>
       </c>
       <c r="C387" s="0" t="n">
         <v>2</v>
@@ -7503,10 +7482,10 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C388" s="0" t="n">
         <v>2</v>
@@ -7514,10 +7493,10 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="B389" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>759</v>
       </c>
       <c r="C389" s="0" t="n">
         <v>2</v>
@@ -7525,10 +7504,10 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C390" s="0" t="n">
         <v>2</v>
@@ -7536,10 +7515,10 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>759</v>
+        <v>762</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>763</v>
       </c>
       <c r="C391" s="0" t="n">
         <v>2</v>
@@ -7547,10 +7526,10 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C392" s="0" t="n">
         <v>2</v>
@@ -7558,10 +7537,10 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C393" s="0" t="n">
         <v>2</v>
@@ -7569,10 +7548,10 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C394" s="0" t="n">
         <v>2</v>
@@ -7580,10 +7559,10 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C395" s="0" t="n">
         <v>2</v>
@@ -7591,10 +7570,10 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>773</v>
       </c>
       <c r="C396" s="0" t="n">
         <v>2</v>
@@ -7602,10 +7581,10 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C397" s="0" t="n">
         <v>2</v>
@@ -7613,10 +7592,10 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>773</v>
+        <v>776</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>777</v>
       </c>
       <c r="C398" s="0" t="n">
         <v>2</v>
@@ -7624,10 +7603,10 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>775</v>
+        <v>61</v>
       </c>
       <c r="C399" s="0" t="n">
         <v>2</v>
@@ -7635,10 +7614,10 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C400" s="0" t="n">
         <v>2</v>
@@ -7646,10 +7625,10 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>61</v>
+        <v>782</v>
       </c>
       <c r="C401" s="0" t="n">
         <v>2</v>
@@ -7657,10 +7636,10 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C402" s="0" t="n">
         <v>2</v>
@@ -7668,10 +7647,10 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C403" s="0" t="n">
         <v>2</v>
@@ -7679,10 +7658,10 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C404" s="0" t="n">
         <v>2</v>
@@ -7690,10 +7669,10 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C405" s="0" t="n">
         <v>2</v>
@@ -7701,120 +7680,120 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C406" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="C407" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="C408" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="5" t="s">
+    <row r="407" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B409" s="5" t="s">
+      <c r="B407" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="C409" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="5" t="s">
+      <c r="C407" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B410" s="5" t="s">
+      <c r="B408" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="C410" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="5" t="s">
+      <c r="C408" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B411" s="5" t="s">
+      <c r="B409" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="C411" s="5" t="n">
+      <c r="C409" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="C410" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C411" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="C412" s="0" t="n">
+      <c r="A412" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C412" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="C413" s="5" t="n">
+      <c r="A413" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="C413" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="C414" s="5" t="n">
+      <c r="A414" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="C414" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="5" t="s">
-        <v>804</v>
+      <c r="A415" s="0" t="s">
+        <v>808</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="C415" s="5" t="n">
+        <v>809</v>
+      </c>
+      <c r="C415" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C416" s="0" t="n">
         <v>2</v>
@@ -7822,10 +7801,10 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C417" s="0" t="n">
         <v>2</v>
@@ -7833,10 +7812,10 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C418" s="0" t="n">
         <v>2</v>
@@ -7844,54 +7823,54 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C419" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="C420" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C420" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C421" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="C422" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C422" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C423" s="0" t="n">
         <v>2</v>
@@ -7899,10 +7878,10 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C424" s="0" t="n">
         <v>2</v>
@@ -7910,10 +7889,10 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>824</v>
+        <v>650</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C425" s="0" t="n">
         <v>2</v>
@@ -7921,10 +7900,10 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>827</v>
+        <v>507</v>
       </c>
       <c r="C426" s="0" t="n">
         <v>2</v>
@@ -7932,10 +7911,10 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>650</v>
+        <v>830</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C427" s="0" t="n">
         <v>2</v>
@@ -7943,10 +7922,10 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>507</v>
+        <v>684</v>
       </c>
       <c r="C428" s="0" t="n">
         <v>2</v>
@@ -7954,10 +7933,10 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C429" s="0" t="n">
         <v>2</v>
@@ -7965,10 +7944,10 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>684</v>
+        <v>836</v>
       </c>
       <c r="C430" s="0" t="n">
         <v>2</v>
@@ -7976,10 +7955,10 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C431" s="0" t="n">
         <v>2</v>
@@ -7987,10 +7966,10 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C432" s="0" t="n">
         <v>2</v>
@@ -7998,10 +7977,10 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>837</v>
+        <v>709</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C433" s="0" t="n">
         <v>2</v>
@@ -8009,10 +7988,10 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>840</v>
+        <v>792</v>
       </c>
       <c r="C434" s="0" t="n">
         <v>2</v>
@@ -8020,10 +7999,10 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>709</v>
+        <v>843</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C435" s="0" t="n">
         <v>2</v>
@@ -8031,10 +8010,10 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="C436" s="0" t="n">
         <v>2</v>
@@ -8042,10 +8021,10 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>843</v>
+        <v>678</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>844</v>
+        <v>679</v>
       </c>
       <c r="C437" s="0" t="n">
         <v>2</v>
@@ -8053,10 +8032,10 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C438" s="0" t="n">
         <v>2</v>
@@ -8064,10 +8043,10 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>678</v>
+        <v>849</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>679</v>
+        <v>850</v>
       </c>
       <c r="C439" s="0" t="n">
         <v>2</v>
@@ -8075,10 +8054,10 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C440" s="0" t="n">
         <v>2</v>
@@ -8086,10 +8065,10 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C441" s="0" t="n">
         <v>2</v>
@@ -8097,54 +8076,54 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C442" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C443" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C444" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C445" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C446" s="0" t="n">
         <v>2</v>
@@ -8152,21 +8131,21 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>861</v>
+        <v>86</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>862</v>
+        <v>87</v>
       </c>
       <c r="C447" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C448" s="0" t="n">
         <v>2</v>
@@ -8174,21 +8153,21 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>86</v>
+        <v>867</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>87</v>
+        <v>868</v>
       </c>
       <c r="C449" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C450" s="0" t="n">
         <v>2</v>
@@ -8196,10 +8175,10 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C451" s="0" t="n">
         <v>2</v>
@@ -8207,10 +8186,10 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C452" s="0" t="n">
         <v>2</v>
@@ -8218,10 +8197,10 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C453" s="0" t="n">
         <v>2</v>
@@ -8229,10 +8208,10 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C454" s="0" t="n">
         <v>2</v>
@@ -8240,10 +8219,10 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C455" s="0" t="n">
         <v>2</v>
@@ -8251,10 +8230,10 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C456" s="0" t="n">
         <v>2</v>
@@ -8262,10 +8241,10 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C457" s="0" t="n">
         <v>2</v>
@@ -8273,10 +8252,10 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C458" s="0" t="n">
         <v>2</v>
@@ -8284,10 +8263,10 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C459" s="0" t="n">
         <v>2</v>
@@ -8295,10 +8274,10 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>885</v>
+        <v>764</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C460" s="0" t="n">
         <v>2</v>
@@ -8306,10 +8285,10 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C461" s="0" t="n">
         <v>2</v>
@@ -8317,10 +8296,10 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>764</v>
+        <v>892</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C462" s="0" t="n">
         <v>2</v>
@@ -8328,10 +8307,10 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C463" s="0" t="n">
         <v>2</v>
@@ -8339,10 +8318,10 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>893</v>
+        <v>708</v>
       </c>
       <c r="C464" s="0" t="n">
         <v>2</v>
@@ -8350,10 +8329,10 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C465" s="0" t="n">
         <v>2</v>
@@ -8361,10 +8340,10 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>708</v>
+        <v>900</v>
       </c>
       <c r="C466" s="0" t="n">
         <v>2</v>
@@ -8372,10 +8351,10 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C467" s="0" t="n">
         <v>2</v>
@@ -8383,10 +8362,10 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C468" s="0" t="n">
         <v>2</v>
@@ -8394,10 +8373,10 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C469" s="0" t="n">
         <v>2</v>
@@ -8405,10 +8384,10 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C470" s="0" t="n">
         <v>2</v>
@@ -8416,10 +8395,10 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C471" s="0" t="n">
         <v>2</v>
@@ -8427,10 +8406,10 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C472" s="0" t="n">
         <v>2</v>
@@ -8438,10 +8417,10 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C473" s="0" t="n">
         <v>2</v>
@@ -8449,10 +8428,10 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C474" s="0" t="n">
         <v>2</v>
@@ -8460,10 +8439,10 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C475" s="0" t="n">
         <v>2</v>
@@ -8471,10 +8450,10 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C476" s="0" t="n">
         <v>2</v>
@@ -8482,10 +8461,10 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C477" s="0" t="n">
         <v>2</v>
@@ -8493,10 +8472,10 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C478" s="0" t="n">
         <v>2</v>
@@ -8504,21 +8483,21 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C479" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C480" s="0" t="n">
         <v>2</v>
@@ -8526,21 +8505,21 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C481" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>927</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>928</v>
+        <v>931</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>920</v>
       </c>
       <c r="C482" s="0" t="n">
         <v>2</v>
@@ -8548,10 +8527,10 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C483" s="0" t="n">
         <v>2</v>
@@ -8559,10 +8538,10 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>931</v>
-      </c>
-      <c r="B484" s="5" t="s">
-        <v>920</v>
+        <v>934</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>935</v>
       </c>
       <c r="C484" s="0" t="n">
         <v>2</v>
@@ -8570,10 +8549,10 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C485" s="0" t="n">
         <v>2</v>
@@ -8581,10 +8560,10 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C486" s="0" t="n">
         <v>2</v>
@@ -8592,10 +8571,10 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C487" s="0" t="n">
         <v>2</v>
@@ -8603,10 +8582,10 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C488" s="0" t="n">
         <v>2</v>
@@ -8614,10 +8593,10 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>941</v>
+        <v>199</v>
       </c>
       <c r="C489" s="0" t="n">
         <v>2</v>
@@ -8625,10 +8604,10 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>942</v>
+        <v>289</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>943</v>
+        <v>290</v>
       </c>
       <c r="C490" s="0" t="n">
         <v>2</v>
@@ -8636,10 +8615,10 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>200</v>
+        <v>946</v>
       </c>
       <c r="C491" s="0" t="n">
         <v>2</v>
@@ -8647,10 +8626,10 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>289</v>
+        <v>947</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>290</v>
+        <v>948</v>
       </c>
       <c r="C492" s="0" t="n">
         <v>2</v>
@@ -8658,10 +8637,10 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C493" s="0" t="n">
         <v>2</v>
@@ -8669,10 +8648,10 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C494" s="0" t="n">
         <v>2</v>
@@ -8680,10 +8659,10 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C495" s="0" t="n">
         <v>2</v>
@@ -8691,10 +8670,10 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C496" s="0" t="n">
         <v>2</v>
@@ -8702,10 +8681,10 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C497" s="0" t="n">
         <v>2</v>
@@ -8713,10 +8692,10 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C498" s="0" t="n">
         <v>2</v>
@@ -8724,10 +8703,10 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C499" s="0" t="n">
         <v>2</v>
@@ -8735,10 +8714,10 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>959</v>
+        <v>764</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C500" s="0" t="n">
         <v>2</v>
@@ -8746,10 +8725,10 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C501" s="0" t="n">
         <v>2</v>
@@ -8757,10 +8736,10 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>764</v>
+        <v>590</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C502" s="0" t="n">
         <v>2</v>
@@ -8768,10 +8747,10 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C503" s="0" t="n">
         <v>2</v>
@@ -8779,10 +8758,10 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>590</v>
+        <v>969</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C504" s="0" t="n">
         <v>2</v>
@@ -8790,10 +8769,10 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C505" s="0" t="n">
         <v>2</v>
@@ -8801,10 +8780,10 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C506" s="0" t="n">
         <v>2</v>
@@ -8812,21 +8791,21 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="C507" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
-        <v>973</v>
+    <row r="508" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="5" t="s">
+        <v>977</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C508" s="0" t="n">
         <v>2</v>
@@ -8834,54 +8813,54 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="C509" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="6" t="s">
-        <v>977</v>
+      <c r="A510" s="5" t="s">
+        <v>981</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="C510" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="0" t="s">
-        <v>979</v>
+    <row r="511" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="5" t="s">
+        <v>983</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="C511" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="6" t="s">
-        <v>981</v>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>985</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="C512" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="6" t="s">
-        <v>983</v>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>987</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C513" s="0" t="n">
         <v>2</v>
@@ -8889,10 +8868,10 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C514" s="0" t="n">
         <v>2</v>
@@ -8900,10 +8879,10 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C515" s="0" t="n">
         <v>2</v>
@@ -8911,10 +8890,10 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="C516" s="0" t="n">
         <v>2</v>
@@ -8922,38 +8901,37 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>991</v>
-      </c>
-      <c r="B517" s="0" t="s">
-        <v>992</v>
+        <v>995</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>996</v>
       </c>
       <c r="C517" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
-        <v>993</v>
+      <c r="A518" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>994</v>
+        <v>253</v>
       </c>
       <c r="C518" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="B519" s="7" t="s">
-        <v>996</v>
+      <c r="A519" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>161</v>
       </c>
       <c r="C519" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -3029,6 +3029,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3051,18 +3052,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8092A3"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3212,7 +3216,7 @@
   <dimension ref="A1:C519"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A504" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C519" activeCellId="0" sqref="C519"/>
+      <selection pane="topLeft" activeCell="B517" activeCellId="0" sqref="B517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="999">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2956,7 +2956,7 @@
     <t xml:space="preserve">تقرير الغياب والحضور</t>
   </si>
   <si>
-    <t xml:space="preserve">report_card/fgl</t>
+    <t xml:space="preserve">report_card/fgls</t>
   </si>
   <si>
     <t xml:space="preserve">تفرير الدرجات</t>
@@ -2992,13 +2992,13 @@
     <t xml:space="preserve">تقرير درجات مدرسة الفرسان</t>
   </si>
   <si>
-    <t xml:space="preserve">report_card/mfis/boys</t>
+    <t xml:space="preserve">report_card/mfis/mfisb</t>
   </si>
   <si>
     <t xml:space="preserve">تقرير درجات مدرسة  منارة الفاروق أولاد</t>
   </si>
   <si>
-    <t xml:space="preserve">report_card/mfis/girls</t>
+    <t xml:space="preserve">report_card/mfis/mfisg</t>
   </si>
   <si>
     <t xml:space="preserve">تقرير درجات مدرسة  منارة الفاروق بنات</t>
@@ -3014,6 +3014,12 @@
   </si>
   <si>
     <t xml:space="preserve">طباعة جميع تقارير الدرجات مدرسة  منارة الفاروق بنات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_card/allow_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فتح الشهادات للمراحل</t>
   </si>
 </sst>
 </file>
@@ -3213,10 +3219,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C519"/>
+  <dimension ref="A1:C520"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A504" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B517" activeCellId="0" sqref="B517"/>
+      <selection pane="topLeft" activeCell="A508" activeCellId="0" sqref="A508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8936,6 +8942,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="520" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B520" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C520" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/public/translation/ArabTranslate.xlsx
+++ b/public/translation/ArabTranslate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1000">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -3014,6 +3014,9 @@
   </si>
   <si>
     <t xml:space="preserve">طباعة جميع تقارير الدرجات مدرسة  منارة الفاروق بنات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صح</t>
   </si>
   <si>
     <t xml:space="preserve">report_card/allow_levels</t>
@@ -3221,8 +3224,8 @@
   </sheetPr>
   <dimension ref="A1:C520"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A504" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A508" activeCellId="0" sqref="A508"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A508" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B519" activeCellId="0" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8936,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>161</v>
+        <v>997</v>
       </c>
       <c r="C519" s="0" t="n">
         <v>2</v>
@@ -8944,10 +8947,10 @@
     </row>
     <row r="520" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C520" s="0" t="n">
         <v>2</v>
